--- a/data/matriz_costo_avion.xlsx
+++ b/data/matriz_costo_avion.xlsx
@@ -5,19 +5,16 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/fd171dda8de17894/Desktop/Enex/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/fd171dda8de17894/Desktop/cerebro-patio/Cerebro/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="49" documentId="8_{779BFF23-F478-480E-BC26-60E4BB952075}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F229A45E-609C-4464-A996-A9BA981CFD3D}"/>
+  <xr:revisionPtr revIDLastSave="55" documentId="8_{779BFF23-F478-480E-BC26-60E4BB952075}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CC63C661-3DB8-4CD6-8C25-F4F27EDF4675}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{E07775A7-4B08-4E55-93F5-65AF3FCF621F}"/>
   </bookViews>
   <sheets>
     <sheet name="costo_avion" sheetId="1" r:id="rId1"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId2"/>
-  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -678,7 +675,17 @@
     <cellStyle name="Título 3" xfId="4" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -700,183 +707,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="demanda"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>ciudad</v>
-          </cell>
-        </row>
-        <row r="2">
-          <cell r="A2" t="str">
-            <v>Antofagasta</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="A3" t="str">
-            <v>Arica</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="A4" t="str">
-            <v>Calama</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="A5" t="str">
-            <v>Caldera</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="A6" t="str">
-            <v>Castro</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="A7" t="str">
-            <v>Chillán</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="A8" t="str">
-            <v>Concepción</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="A9" t="str">
-            <v>Copiapó</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="A10" t="str">
-            <v>Coquimbo</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="A11" t="str">
-            <v>Coronel</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="A12" t="str">
-            <v>Iquique</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="A13" t="str">
-            <v>Lautaro</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="A14" t="str">
-            <v>Linares</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="A15" t="str">
-            <v>Los Ángeles</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="A16" t="str">
-            <v>Mejillones</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="A17" t="str">
-            <v>Osorno</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="A18" t="str">
-            <v>Ovalle</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="A19" t="str">
-            <v>Pichirropulli</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="A20" t="str">
-            <v>Puerto Aysen</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="A21" t="str">
-            <v>Puerto Montt</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="A22" t="str">
-            <v>Puerto Natales</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="A23" t="str">
-            <v>Puerto Williams</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="A24" t="str">
-            <v>Punta Arenas</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="A25" t="str">
-            <v>Romeral</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="A26" t="str">
-            <v>San Antonio</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="A27" t="str">
-            <v>San Fernando</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="A28" t="str">
-            <v>San Vicente</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="A29" t="str">
-            <v>Santiago</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="A30" t="str">
-            <v>Talca</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="A31" t="str">
-            <v>Valdivia</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="A32" t="str">
-            <v>Valparaiso</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1198,8 +1028,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D2896D2-9529-4573-B055-D0E1C7FFB44E}">
   <dimension ref="A1:AG32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1209,49 +1039,49 @@
         <v>11</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="M1" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="M1" s="4" t="s">
+        <v>12</v>
+      </c>
       <c r="N1" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="P1" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Q1" t="s">
         <v>16</v>
@@ -1309,9 +1139,8 @@
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="str">
-        <f>VLOOKUP(A2,[1]demanda!$A:$A,1,0)</f>
-        <v>Arica</v>
+      <c r="B2" s="3">
+        <v>0</v>
       </c>
       <c r="C2" s="3">
         <v>0</v>
@@ -1326,10 +1155,10 @@
         <v>0</v>
       </c>
       <c r="G2" s="3">
-        <v>0</v>
+        <v>1.5841012658227849</v>
       </c>
       <c r="H2" s="3">
-        <v>1.5841012658227849</v>
+        <v>0</v>
       </c>
       <c r="I2" s="3">
         <v>0</v>
@@ -1401,6 +1230,9 @@
         <v>0</v>
       </c>
       <c r="AF2" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG2" s="3">
         <v>0</v>
       </c>
     </row>
@@ -1408,27 +1240,26 @@
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="2" t="str">
-        <f>VLOOKUP(A3,[1]demanda!$A:$A,1,0)</f>
-        <v>Iquique</v>
+      <c r="B3" s="3">
+        <v>0</v>
       </c>
       <c r="C3" s="3">
         <v>0</v>
       </c>
       <c r="D3" s="3">
-        <v>0</v>
+        <v>0.28762025316455697</v>
       </c>
       <c r="E3" s="3">
-        <v>0.28762025316455697</v>
+        <v>0</v>
       </c>
       <c r="F3" s="3">
         <v>0</v>
       </c>
       <c r="G3" s="3">
-        <v>0</v>
+        <v>1.369240506329114</v>
       </c>
       <c r="H3" s="3">
-        <v>1.369240506329114</v>
+        <v>0</v>
       </c>
       <c r="I3" s="3">
         <v>0</v>
@@ -1500,6 +1331,9 @@
         <v>0</v>
       </c>
       <c r="AF3" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG3" s="3">
         <v>0</v>
       </c>
     </row>
@@ -1507,27 +1341,26 @@
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="2" t="str">
-        <f>VLOOKUP(A4,[1]demanda!$A:$A,1,0)</f>
-        <v>Antofagasta</v>
+      <c r="B4" s="3">
+        <v>0</v>
       </c>
       <c r="C4" s="3">
-        <v>0</v>
+        <v>0.28762025316455697</v>
       </c>
       <c r="D4" s="3">
-        <v>0.28762025316455697</v>
+        <v>0</v>
       </c>
       <c r="E4" s="3">
-        <v>0</v>
+        <v>0.16810126582278481</v>
       </c>
       <c r="F4" s="3">
-        <v>0.16810126582278481</v>
+        <v>0</v>
       </c>
       <c r="G4" s="3">
-        <v>0</v>
+        <v>1.0818987341772153</v>
       </c>
       <c r="H4" s="3">
-        <v>1.0818987341772153</v>
+        <v>0</v>
       </c>
       <c r="I4" s="3">
         <v>0</v>
@@ -1599,6 +1432,9 @@
         <v>0</v>
       </c>
       <c r="AF4" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG4" s="3">
         <v>0</v>
       </c>
     </row>
@@ -1606,27 +1442,26 @@
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="2" t="str">
-        <f>VLOOKUP(A5,[1]demanda!$A:$A,1,0)</f>
-        <v>Calama</v>
+      <c r="B5" s="3">
+        <v>0</v>
       </c>
       <c r="C5" s="3">
         <v>0</v>
       </c>
       <c r="D5" s="3">
-        <v>0</v>
+        <v>0.16810126582278481</v>
       </c>
       <c r="E5" s="3">
-        <v>0.16810126582278481</v>
+        <v>0</v>
       </c>
       <c r="F5" s="3">
         <v>0</v>
       </c>
       <c r="G5" s="3">
-        <v>0</v>
+        <v>1.1870632911392405</v>
       </c>
       <c r="H5" s="3">
-        <v>1.1870632911392405</v>
+        <v>0</v>
       </c>
       <c r="I5" s="3">
         <v>0</v>
@@ -1698,6 +1533,9 @@
         <v>0</v>
       </c>
       <c r="AF5" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG5" s="3">
         <v>0</v>
       </c>
     </row>
@@ -1705,9 +1543,8 @@
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="2" t="str">
-        <f>VLOOKUP(A6,[1]demanda!$A:$A,1,0)</f>
-        <v>Copiapó</v>
+      <c r="B6" s="3">
+        <v>0</v>
       </c>
       <c r="C6" s="3">
         <v>0</v>
@@ -1722,10 +1559,10 @@
         <v>0</v>
       </c>
       <c r="G6" s="3">
-        <v>0</v>
+        <v>0.70273417721518983</v>
       </c>
       <c r="H6" s="3">
-        <v>0.70273417721518983</v>
+        <v>0</v>
       </c>
       <c r="I6" s="3">
         <v>0</v>
@@ -1797,6 +1634,9 @@
         <v>0</v>
       </c>
       <c r="AF6" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG6" s="3">
         <v>0</v>
       </c>
     </row>
@@ -1804,42 +1644,41 @@
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="2" t="str">
-        <f>VLOOKUP(A7,[1]demanda!$A:$A,1,0)</f>
-        <v>Santiago</v>
+      <c r="B7" s="3">
+        <v>1.5841012658227849</v>
       </c>
       <c r="C7" s="3">
-        <v>1.5841012658227849</v>
+        <v>1.369240506329114</v>
       </c>
       <c r="D7" s="3">
-        <v>1.369240506329114</v>
+        <v>1.0818987341772153</v>
       </c>
       <c r="E7" s="3">
-        <v>1.0818987341772153</v>
+        <v>1.1870632911392405</v>
       </c>
       <c r="F7" s="3">
-        <v>1.1870632911392405</v>
+        <v>0.70273417721518983</v>
       </c>
       <c r="G7" s="3">
-        <v>0.70273417721518983</v>
+        <v>0</v>
       </c>
       <c r="H7" s="3">
-        <v>0</v>
+        <v>0.48149367088607598</v>
       </c>
       <c r="I7" s="3">
-        <v>0.48149367088607598</v>
+        <v>0.65081012658227844</v>
       </c>
       <c r="J7" s="3">
-        <v>0.65081012658227844</v>
+        <v>0.74402531645569625</v>
       </c>
       <c r="K7" s="3">
-        <v>0.74402531645569625</v>
+        <v>0.91425316455696204</v>
       </c>
       <c r="L7" s="3">
-        <v>0.91425316455696204</v>
+        <v>2.0333670886075947</v>
       </c>
       <c r="M7" s="3">
-        <v>2.0333670886075947</v>
+        <v>0</v>
       </c>
       <c r="N7" s="3">
         <v>0</v>
@@ -1896,6 +1735,9 @@
         <v>0</v>
       </c>
       <c r="AF7" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG7" s="3">
         <v>0</v>
       </c>
     </row>
@@ -1903,9 +1745,8 @@
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="2" t="str">
-        <f>VLOOKUP(A8,[1]demanda!$A:$A,1,0)</f>
-        <v>Concepción</v>
+      <c r="B8" s="3">
+        <v>0</v>
       </c>
       <c r="C8" s="3">
         <v>0</v>
@@ -1920,10 +1761,10 @@
         <v>0</v>
       </c>
       <c r="G8" s="3">
-        <v>0</v>
+        <v>0.48149367088607598</v>
       </c>
       <c r="H8" s="3">
-        <v>0.48149367088607598</v>
+        <v>0</v>
       </c>
       <c r="I8" s="3">
         <v>0</v>
@@ -1995,6 +1836,9 @@
         <v>0</v>
       </c>
       <c r="AF8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG8" s="3">
         <v>0</v>
       </c>
     </row>
@@ -2002,9 +1846,8 @@
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="2" t="str">
-        <f>VLOOKUP(A9,[1]demanda!$A:$A,1,0)</f>
-        <v>Valdivia</v>
+      <c r="B9" s="3">
+        <v>0</v>
       </c>
       <c r="C9" s="3">
         <v>0</v>
@@ -2019,10 +1862,10 @@
         <v>0</v>
       </c>
       <c r="G9" s="3">
-        <v>0</v>
+        <v>0.74402531645569625</v>
       </c>
       <c r="H9" s="3">
-        <v>0.74402531645569625</v>
+        <v>0</v>
       </c>
       <c r="I9" s="3">
         <v>0</v>
@@ -2094,6 +1937,9 @@
         <v>0</v>
       </c>
       <c r="AF9" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG9" s="3">
         <v>0</v>
       </c>
     </row>
@@ -2101,9 +1947,8 @@
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="2" t="str">
-        <f>VLOOKUP(A10,[1]demanda!$A:$A,1,0)</f>
-        <v>Puerto Montt</v>
+      <c r="B10" s="3">
+        <v>0</v>
       </c>
       <c r="C10" s="3">
         <v>0</v>
@@ -2118,10 +1963,10 @@
         <v>0</v>
       </c>
       <c r="G10" s="3">
-        <v>0</v>
+        <v>0.91425316455696204</v>
       </c>
       <c r="H10" s="3">
-        <v>0.91425316455696204</v>
+        <v>0</v>
       </c>
       <c r="I10" s="3">
         <v>0</v>
@@ -2193,6 +2038,9 @@
         <v>0</v>
       </c>
       <c r="AF10" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG10" s="3">
         <v>0</v>
       </c>
     </row>
@@ -2200,9 +2048,8 @@
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="2" t="str">
-        <f>VLOOKUP(A11,[1]demanda!$A:$A,1,0)</f>
-        <v>Punta Arenas</v>
+      <c r="B11" s="3">
+        <v>0</v>
       </c>
       <c r="C11" s="3">
         <v>0</v>
@@ -2217,10 +2064,10 @@
         <v>0</v>
       </c>
       <c r="G11" s="3">
-        <v>0</v>
+        <v>2.0333670886075947</v>
       </c>
       <c r="H11" s="3">
-        <v>2.0333670886075947</v>
+        <v>0</v>
       </c>
       <c r="I11" s="3">
         <v>0</v>
@@ -2292,6 +2139,9 @@
         <v>0</v>
       </c>
       <c r="AF11" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG11" s="3">
         <v>0</v>
       </c>
     </row>
@@ -2299,9 +2149,8 @@
       <c r="A12" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="2" t="str">
-        <f>VLOOKUP(A12,[1]demanda!$A:$A,1,0)</f>
-        <v>Caldera</v>
+      <c r="B12" s="3">
+        <v>0</v>
       </c>
       <c r="C12" s="3">
         <v>0</v>
@@ -2391,6 +2240,9 @@
         <v>0</v>
       </c>
       <c r="AF12" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG12" s="3">
         <v>0</v>
       </c>
     </row>
@@ -2398,9 +2250,8 @@
       <c r="A13" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="2" t="str">
-        <f>VLOOKUP(A13,[1]demanda!$A:$A,1,0)</f>
-        <v>Castro</v>
+      <c r="B13" s="3">
+        <v>0</v>
       </c>
       <c r="C13" s="3">
         <v>0</v>
@@ -2490,6 +2341,9 @@
         <v>0</v>
       </c>
       <c r="AF13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG13" s="3">
         <v>0</v>
       </c>
     </row>
@@ -2497,9 +2351,8 @@
       <c r="A14" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="2" t="str">
-        <f>VLOOKUP(A14,[1]demanda!$A:$A,1,0)</f>
-        <v>Chillán</v>
+      <c r="B14" s="3">
+        <v>0</v>
       </c>
       <c r="C14" s="3">
         <v>0</v>
@@ -2589,6 +2442,9 @@
         <v>0</v>
       </c>
       <c r="AF14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG14" s="3">
         <v>0</v>
       </c>
     </row>
@@ -2596,9 +2452,8 @@
       <c r="A15" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="2" t="str">
-        <f>VLOOKUP(A15,[1]demanda!$A:$A,1,0)</f>
-        <v>Coquimbo</v>
+      <c r="B15" s="3">
+        <v>0</v>
       </c>
       <c r="C15" s="3">
         <v>0</v>
@@ -2688,6 +2543,9 @@
         <v>0</v>
       </c>
       <c r="AF15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG15" s="3">
         <v>0</v>
       </c>
     </row>
@@ -2695,9 +2553,8 @@
       <c r="A16" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="2" t="str">
-        <f>VLOOKUP(A16,[1]demanda!$A:$A,1,0)</f>
-        <v>Coronel</v>
+      <c r="B16" s="3">
+        <v>0</v>
       </c>
       <c r="C16" s="3">
         <v>0</v>
@@ -2789,14 +2646,16 @@
       <c r="AF16" s="3">
         <v>0</v>
       </c>
+      <c r="AG16" s="3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A17" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="2" t="str">
-        <f>VLOOKUP(A17,[1]demanda!$A:$A,1,0)</f>
-        <v>Lautaro</v>
+      <c r="B17" s="3">
+        <v>0</v>
       </c>
       <c r="C17" s="3">
         <v>0</v>
@@ -2888,14 +2747,16 @@
       <c r="AF17" s="3">
         <v>0</v>
       </c>
+      <c r="AG17" s="3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="18" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A18" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="2" t="str">
-        <f>VLOOKUP(A18,[1]demanda!$A:$A,1,0)</f>
-        <v>Linares</v>
+      <c r="B18" s="3">
+        <v>0</v>
       </c>
       <c r="C18" s="3">
         <v>0</v>
@@ -2987,14 +2848,16 @@
       <c r="AF18" s="3">
         <v>0</v>
       </c>
+      <c r="AG18" s="3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="19" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A19" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="2" t="str">
-        <f>VLOOKUP(A19,[1]demanda!$A:$A,1,0)</f>
-        <v>Los Ángeles</v>
+      <c r="B19" s="3">
+        <v>0</v>
       </c>
       <c r="C19" s="3">
         <v>0</v>
@@ -3086,14 +2949,16 @@
       <c r="AF19" s="3">
         <v>0</v>
       </c>
+      <c r="AG19" s="3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="20" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A20" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B20" s="2" t="str">
-        <f>VLOOKUP(A20,[1]demanda!$A:$A,1,0)</f>
-        <v>Mejillones</v>
+      <c r="B20" s="3">
+        <v>0</v>
       </c>
       <c r="C20" s="3">
         <v>0</v>
@@ -3185,14 +3050,16 @@
       <c r="AF20" s="3">
         <v>0</v>
       </c>
+      <c r="AG20" s="3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="21" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A21" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B21" s="2" t="str">
-        <f>VLOOKUP(A21,[1]demanda!$A:$A,1,0)</f>
-        <v>Osorno</v>
+      <c r="B21" s="3">
+        <v>0</v>
       </c>
       <c r="C21" s="3">
         <v>0</v>
@@ -3284,14 +3151,16 @@
       <c r="AF21" s="3">
         <v>0</v>
       </c>
+      <c r="AG21" s="3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="22" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A22" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B22" s="2" t="str">
-        <f>VLOOKUP(A22,[1]demanda!$A:$A,1,0)</f>
-        <v>Ovalle</v>
+      <c r="B22" s="3">
+        <v>0</v>
       </c>
       <c r="C22" s="3">
         <v>0</v>
@@ -3383,14 +3252,16 @@
       <c r="AF22" s="3">
         <v>0</v>
       </c>
+      <c r="AG22" s="3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="23" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A23" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B23" s="2" t="str">
-        <f>VLOOKUP(A23,[1]demanda!$A:$A,1,0)</f>
-        <v>Pichirropulli</v>
+      <c r="B23" s="3">
+        <v>0</v>
       </c>
       <c r="C23" s="3">
         <v>0</v>
@@ -3482,14 +3353,16 @@
       <c r="AF23" s="3">
         <v>0</v>
       </c>
+      <c r="AG23" s="3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="24" spans="1:32" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>24</v>
       </c>
-      <c r="B24" s="2" t="str">
-        <f>VLOOKUP(A24,[1]demanda!$A:$A,1,0)</f>
-        <v>Puerto Aysen</v>
+      <c r="B24" s="3">
+        <v>0</v>
       </c>
       <c r="C24" s="3">
         <v>0</v>
@@ -3581,14 +3454,16 @@
       <c r="AF24" s="3">
         <v>0</v>
       </c>
+      <c r="AG24" s="3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="25" spans="1:32" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>25</v>
       </c>
-      <c r="B25" s="2" t="str">
-        <f>VLOOKUP(A25,[1]demanda!$A:$A,1,0)</f>
-        <v>Puerto Natales</v>
+      <c r="B25" s="3">
+        <v>0</v>
       </c>
       <c r="C25" s="3">
         <v>0</v>
@@ -3680,14 +3555,16 @@
       <c r="AF25" s="3">
         <v>0</v>
       </c>
+      <c r="AG25" s="3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="26" spans="1:32" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:33" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A26" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B26" s="2" t="str">
-        <f>VLOOKUP(A26,[1]demanda!$A:$A,1,0)</f>
-        <v>Puerto Williams</v>
+      <c r="B26" s="3">
+        <v>0</v>
       </c>
       <c r="C26" s="3">
         <v>0</v>
@@ -3779,14 +3656,16 @@
       <c r="AF26" s="3">
         <v>0</v>
       </c>
+      <c r="AG26" s="3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="27" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A27" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B27" s="2" t="str">
-        <f>VLOOKUP(A27,[1]demanda!$A:$A,1,0)</f>
-        <v>Romeral</v>
+      <c r="B27" s="3">
+        <v>0</v>
       </c>
       <c r="C27" s="3">
         <v>0</v>
@@ -3878,14 +3757,16 @@
       <c r="AF27" s="3">
         <v>0</v>
       </c>
+      <c r="AG27" s="3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="28" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A28" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B28" s="2" t="str">
-        <f>VLOOKUP(A28,[1]demanda!$A:$A,1,0)</f>
-        <v>San Antonio</v>
+      <c r="B28" s="3">
+        <v>0</v>
       </c>
       <c r="C28" s="3">
         <v>0</v>
@@ -3977,14 +3858,16 @@
       <c r="AF28" s="3">
         <v>0</v>
       </c>
+      <c r="AG28" s="3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="29" spans="1:32" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:33" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A29" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B29" s="2" t="str">
-        <f>VLOOKUP(A29,[1]demanda!$A:$A,1,0)</f>
-        <v>San Fernando</v>
+      <c r="B29" s="3">
+        <v>0</v>
       </c>
       <c r="C29" s="3">
         <v>0</v>
@@ -4076,14 +3959,16 @@
       <c r="AF29" s="3">
         <v>0</v>
       </c>
+      <c r="AG29" s="3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="30" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A30" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B30" s="2" t="str">
-        <f>VLOOKUP(A30,[1]demanda!$A:$A,1,0)</f>
-        <v>San Vicente</v>
+      <c r="B30" s="3">
+        <v>0</v>
       </c>
       <c r="C30" s="3">
         <v>0</v>
@@ -4175,14 +4060,16 @@
       <c r="AF30" s="3">
         <v>0</v>
       </c>
+      <c r="AG30" s="3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="31" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A31" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B31" s="2" t="str">
-        <f>VLOOKUP(A31,[1]demanda!$A:$A,1,0)</f>
-        <v>Talca</v>
+      <c r="B31" s="3">
+        <v>0</v>
       </c>
       <c r="C31" s="3">
         <v>0</v>
@@ -4274,14 +4161,16 @@
       <c r="AF31" s="3">
         <v>0</v>
       </c>
+      <c r="AG31" s="3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="32" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A32" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B32" s="2" t="str">
-        <f>VLOOKUP(A32,[1]demanda!$A:$A,1,0)</f>
-        <v>Valparaiso</v>
+      <c r="B32" s="3">
+        <v>0</v>
       </c>
       <c r="C32" s="3">
         <v>0</v>
@@ -4371,11 +4260,17 @@
         <v>0</v>
       </c>
       <c r="AF32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG32" s="3">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P1">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/matriz_costo_avion.xlsx
+++ b/data/matriz_costo_avion.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/fd171dda8de17894/Desktop/cerebro-patio/Cerebro/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="55" documentId="8_{779BFF23-F478-480E-BC26-60E4BB952075}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CC63C661-3DB8-4CD6-8C25-F4F27EDF4675}"/>
+  <xr:revisionPtr revIDLastSave="56" documentId="8_{779BFF23-F478-480E-BC26-60E4BB952075}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{14A03CEF-8D11-40CA-9597-EB218D222436}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{E07775A7-4B08-4E55-93F5-65AF3FCF621F}"/>
   </bookViews>
@@ -1029,7 +1029,7 @@
   <dimension ref="A1:AG32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="N18" sqref="N18"/>
+      <selection activeCell="B1" sqref="B1:AG1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1140,100 +1140,100 @@
         <v>0</v>
       </c>
       <c r="B2" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="C2" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="D2" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="E2" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="F2" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="G2" s="3">
-        <v>1.5841012658227849</v>
+        <v>1.5841099999999999</v>
       </c>
       <c r="H2" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="I2" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="J2" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="K2" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="L2" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="M2" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="N2" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="O2" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="P2" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="Q2" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="R2" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="S2" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="T2" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="U2" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="V2" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="W2" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="X2" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="Y2" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="Z2" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="AA2" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="AB2" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="AC2" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="AD2" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="AE2" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="AF2" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="AG2" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.45">
@@ -1241,100 +1241,100 @@
         <v>1</v>
       </c>
       <c r="B3" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="C3" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="D3" s="3">
-        <v>0.28762025316455697</v>
+        <v>10000000000.2876</v>
       </c>
       <c r="E3" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="F3" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="G3" s="3">
-        <v>1.369240506329114</v>
+        <v>1.3692409999999999</v>
       </c>
       <c r="H3" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="I3" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="J3" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="K3" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="L3" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="M3" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="N3" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="O3" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="P3" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="Q3" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="R3" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="S3" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="T3" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="U3" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="V3" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="W3" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="X3" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="Y3" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="Z3" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="AA3" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="AB3" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="AC3" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="AD3" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="AE3" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="AF3" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="AG3" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
     </row>
     <row r="4" spans="1:33" x14ac:dyDescent="0.45">
@@ -1342,100 +1342,100 @@
         <v>2</v>
       </c>
       <c r="B4" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="C4" s="3">
-        <v>0.28762025316455697</v>
+        <v>10000000000.2876</v>
       </c>
       <c r="D4" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="E4" s="3">
-        <v>0.16810126582278481</v>
+        <v>10000000000.1681</v>
       </c>
       <c r="F4" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="G4" s="3">
-        <v>1.0818987341772153</v>
+        <v>1.10000000000818</v>
       </c>
       <c r="H4" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="I4" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="J4" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="K4" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="L4" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="M4" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="N4" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="O4" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="P4" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="Q4" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="R4" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="S4" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="T4" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="U4" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="V4" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="W4" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="X4" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="Y4" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="Z4" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="AA4" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="AB4" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="AC4" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="AD4" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="AE4" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="AF4" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="AG4" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.45">
@@ -1443,100 +1443,100 @@
         <v>3</v>
       </c>
       <c r="B5" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="C5" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="D5" s="3">
-        <v>0.16810126582278481</v>
+        <v>10000000000.1681</v>
       </c>
       <c r="E5" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="F5" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="G5" s="3">
-        <v>1.1870632911392405</v>
+        <v>1.1871</v>
       </c>
       <c r="H5" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="I5" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="J5" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="K5" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="L5" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="M5" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="N5" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="O5" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="P5" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="Q5" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="R5" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="S5" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="T5" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="U5" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="V5" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="W5" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="X5" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="Y5" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="Z5" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="AA5" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="AB5" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="AC5" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="AD5" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="AE5" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="AF5" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="AG5" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.45">
@@ -1544,100 +1544,100 @@
         <v>4</v>
       </c>
       <c r="B6" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="C6" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="D6" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="E6" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="F6" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="G6" s="3">
-        <v>0.70273417721518983</v>
+        <v>10000000000.709999</v>
       </c>
       <c r="H6" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="I6" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="J6" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="K6" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="L6" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="M6" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="N6" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="O6" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="P6" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="Q6" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="R6" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="S6" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="T6" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="U6" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="V6" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="W6" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="X6" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="Y6" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="Z6" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="AA6" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="AB6" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="AC6" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="AD6" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="AE6" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="AF6" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="AG6" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
     </row>
     <row r="7" spans="1:33" x14ac:dyDescent="0.45">
@@ -1645,100 +1645,100 @@
         <v>5</v>
       </c>
       <c r="B7" s="3">
-        <v>1.5841012658227849</v>
+        <v>1.5841099999999999</v>
       </c>
       <c r="C7" s="3">
-        <v>1.369240506329114</v>
+        <v>1.3692409999999999</v>
       </c>
       <c r="D7" s="3">
-        <v>1.0818987341772153</v>
+        <v>1.10000000000818</v>
       </c>
       <c r="E7" s="3">
-        <v>1.1870632911392405</v>
+        <v>1.1871</v>
       </c>
       <c r="F7" s="3">
-        <v>0.70273417721518983</v>
+        <v>10000000000.709999</v>
       </c>
       <c r="G7" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="H7" s="3">
-        <v>0.48149367088607598</v>
+        <v>10000000000.4814</v>
       </c>
       <c r="I7" s="3">
-        <v>0.65081012658227844</v>
+        <v>10000000000.650999</v>
       </c>
       <c r="J7" s="3">
-        <v>0.74402531645569625</v>
+        <v>10000000000.744101</v>
       </c>
       <c r="K7" s="3">
-        <v>0.91425316455696204</v>
+        <v>10000000000.9142</v>
       </c>
       <c r="L7" s="3">
-        <v>2.0333670886075947</v>
+        <v>2.1000000000033299</v>
       </c>
       <c r="M7" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="N7" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="O7" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="P7" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="Q7" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="R7" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="S7" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="T7" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="U7" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="V7" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="W7" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="X7" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="Y7" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="Z7" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="AA7" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="AB7" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="AC7" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="AD7" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="AE7" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="AF7" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="AG7" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
     </row>
     <row r="8" spans="1:33" x14ac:dyDescent="0.45">
@@ -1746,100 +1746,100 @@
         <v>6</v>
       </c>
       <c r="B8" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="C8" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="D8" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="E8" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="F8" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="G8" s="3">
-        <v>0.48149367088607598</v>
+        <v>10000000000.4814</v>
       </c>
       <c r="H8" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="I8" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="J8" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="K8" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="L8" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="M8" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="N8" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="O8" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="P8" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="Q8" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="R8" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="S8" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="T8" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="U8" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="V8" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="W8" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="X8" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="Y8" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="Z8" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="AA8" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="AB8" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="AC8" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="AD8" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="AE8" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="AF8" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="AG8" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
     </row>
     <row r="9" spans="1:33" x14ac:dyDescent="0.45">
@@ -1847,100 +1847,100 @@
         <v>8</v>
       </c>
       <c r="B9" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="C9" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="D9" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="E9" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="F9" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="G9" s="3">
-        <v>0.74402531645569625</v>
+        <v>10000000000.744101</v>
       </c>
       <c r="H9" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="I9" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="J9" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="K9" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="L9" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="M9" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="N9" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="O9" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="P9" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="Q9" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="R9" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="S9" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="T9" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="U9" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="V9" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="W9" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="X9" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="Y9" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="Z9" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="AA9" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="AB9" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="AC9" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="AD9" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="AE9" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="AF9" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="AG9" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
     </row>
     <row r="10" spans="1:33" ht="28.5" x14ac:dyDescent="0.45">
@@ -1948,100 +1948,100 @@
         <v>9</v>
       </c>
       <c r="B10" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="C10" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="D10" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="E10" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="F10" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="G10" s="3">
-        <v>0.91425316455696204</v>
+        <v>10000000000.9142</v>
       </c>
       <c r="H10" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="I10" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="J10" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="K10" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="L10" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="M10" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="N10" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="O10" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="P10" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="Q10" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="R10" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="S10" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="T10" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="U10" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="V10" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="W10" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="X10" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="Y10" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="Z10" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="AA10" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="AB10" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="AC10" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="AD10" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="AE10" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="AF10" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="AG10" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
     </row>
     <row r="11" spans="1:33" ht="28.5" x14ac:dyDescent="0.45">
@@ -2049,100 +2049,100 @@
         <v>10</v>
       </c>
       <c r="B11" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="C11" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="D11" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="E11" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="F11" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="G11" s="3">
-        <v>2.0333670886075947</v>
+        <v>2.1000000000033299</v>
       </c>
       <c r="H11" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="I11" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="J11" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="K11" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="L11" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="M11" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="N11" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="O11" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="P11" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="Q11" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="R11" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="S11" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="T11" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="U11" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="V11" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="W11" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="X11" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="Y11" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="Z11" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="AA11" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="AB11" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="AC11" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="AD11" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="AE11" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="AF11" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="AG11" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
     </row>
     <row r="12" spans="1:33" x14ac:dyDescent="0.45">
@@ -2150,100 +2150,100 @@
         <v>12</v>
       </c>
       <c r="B12" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="C12" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="D12" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="E12" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="F12" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="G12" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="H12" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="I12" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="J12" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="K12" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="L12" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="M12" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="N12" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="O12" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="P12" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="Q12" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="R12" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="S12" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="T12" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="U12" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="V12" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="W12" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="X12" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="Y12" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="Z12" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="AA12" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="AB12" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="AC12" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="AD12" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="AE12" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="AF12" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="AG12" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
     </row>
     <row r="13" spans="1:33" x14ac:dyDescent="0.45">
@@ -2251,100 +2251,100 @@
         <v>13</v>
       </c>
       <c r="B13" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="C13" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="D13" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="E13" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="F13" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="G13" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="H13" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="I13" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="J13" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="K13" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="L13" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="M13" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="N13" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="O13" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="P13" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="Q13" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="R13" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="S13" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="T13" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="U13" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="V13" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="W13" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="X13" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="Y13" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="Z13" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="AA13" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="AB13" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="AC13" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="AD13" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="AE13" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="AF13" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="AG13" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
     </row>
     <row r="14" spans="1:33" x14ac:dyDescent="0.45">
@@ -2352,100 +2352,100 @@
         <v>14</v>
       </c>
       <c r="B14" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="C14" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="E14" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="F14" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="G14" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="H14" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="I14" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="J14" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="K14" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="L14" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="M14" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="N14" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="O14" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="P14" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="Q14" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="R14" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="S14" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="T14" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="U14" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="V14" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="W14" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="X14" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="Y14" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="Z14" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="AA14" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="AB14" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="AC14" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="AD14" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="AE14" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="AF14" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="AG14" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
     </row>
     <row r="15" spans="1:33" x14ac:dyDescent="0.45">
@@ -2453,100 +2453,100 @@
         <v>15</v>
       </c>
       <c r="B15" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="C15" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="D15" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="E15" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="F15" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="G15" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="H15" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="I15" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="J15" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="K15" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="L15" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="M15" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="N15" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="O15" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="P15" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="Q15" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="R15" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="S15" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="T15" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="U15" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="V15" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="W15" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="X15" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="Y15" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="Z15" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="AA15" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="AB15" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="AC15" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="AD15" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="AE15" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="AF15" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="AG15" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
     </row>
     <row r="16" spans="1:33" x14ac:dyDescent="0.45">
@@ -2554,100 +2554,100 @@
         <v>16</v>
       </c>
       <c r="B16" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="C16" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="D16" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="E16" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="F16" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="G16" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="H16" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="I16" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="J16" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="K16" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="L16" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="M16" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="N16" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="O16" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="P16" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="Q16" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="R16" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="S16" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="T16" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="U16" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="V16" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="W16" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="X16" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="Y16" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="Z16" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="AA16" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="AB16" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="AC16" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="AD16" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="AE16" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="AF16" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="AG16" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
     </row>
     <row r="17" spans="1:33" x14ac:dyDescent="0.45">
@@ -2655,100 +2655,100 @@
         <v>17</v>
       </c>
       <c r="B17" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="C17" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="D17" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="E17" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="F17" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="G17" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="H17" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="I17" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="J17" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="K17" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="L17" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="M17" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="N17" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="O17" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="P17" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="Q17" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="R17" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="S17" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="T17" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="U17" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="V17" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="W17" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="X17" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="Y17" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="Z17" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="AA17" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="AB17" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="AC17" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="AD17" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="AE17" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="AF17" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="AG17" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
     </row>
     <row r="18" spans="1:33" x14ac:dyDescent="0.45">
@@ -2756,100 +2756,100 @@
         <v>18</v>
       </c>
       <c r="B18" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="C18" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="D18" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="E18" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="F18" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="G18" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="H18" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="I18" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="J18" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="K18" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="L18" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="M18" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="N18" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="O18" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="P18" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="Q18" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="R18" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="S18" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="T18" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="U18" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="V18" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="W18" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="X18" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="Y18" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="Z18" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="AA18" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="AB18" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="AC18" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="AD18" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="AE18" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="AF18" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="AG18" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
     </row>
     <row r="19" spans="1:33" x14ac:dyDescent="0.45">
@@ -2857,100 +2857,100 @@
         <v>19</v>
       </c>
       <c r="B19" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="C19" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="D19" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="E19" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="F19" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="G19" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="H19" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="I19" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="J19" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="K19" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="L19" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="M19" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="N19" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="O19" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="P19" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="Q19" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="R19" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="S19" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="T19" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="U19" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="V19" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="W19" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="X19" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="Y19" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="Z19" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="AA19" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="AB19" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="AC19" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="AD19" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="AE19" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="AF19" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="AG19" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
     </row>
     <row r="20" spans="1:33" x14ac:dyDescent="0.45">
@@ -2958,100 +2958,100 @@
         <v>20</v>
       </c>
       <c r="B20" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="C20" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="E20" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="F20" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="G20" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="H20" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="I20" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="J20" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="K20" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="L20" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="M20" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="N20" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="O20" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="P20" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="Q20" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="R20" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="S20" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="T20" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="U20" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="V20" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="W20" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="X20" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="Y20" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="Z20" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="AA20" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="AB20" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="AC20" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="AD20" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="AE20" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="AF20" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="AG20" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
     </row>
     <row r="21" spans="1:33" x14ac:dyDescent="0.45">
@@ -3059,100 +3059,100 @@
         <v>21</v>
       </c>
       <c r="B21" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="C21" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="D21" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="E21" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="F21" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="G21" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="H21" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="I21" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="J21" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="K21" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="L21" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="M21" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="N21" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="O21" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="P21" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="Q21" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="R21" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="S21" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="T21" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="U21" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="V21" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="W21" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="X21" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="Y21" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="Z21" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="AA21" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="AB21" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="AC21" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="AD21" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="AE21" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="AF21" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="AG21" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
     </row>
     <row r="22" spans="1:33" x14ac:dyDescent="0.45">
@@ -3160,100 +3160,100 @@
         <v>22</v>
       </c>
       <c r="B22" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="C22" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="D22" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="E22" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="F22" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="G22" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="H22" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="I22" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="J22" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="K22" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="L22" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="M22" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="N22" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="O22" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="P22" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="Q22" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="R22" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="S22" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="T22" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="U22" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="V22" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="W22" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="X22" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="Y22" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="Z22" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="AA22" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="AB22" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="AC22" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="AD22" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="AE22" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="AF22" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="AG22" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
     </row>
     <row r="23" spans="1:33" x14ac:dyDescent="0.45">
@@ -3261,100 +3261,100 @@
         <v>23</v>
       </c>
       <c r="B23" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="C23" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="D23" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="E23" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="F23" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="G23" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="H23" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="I23" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="J23" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="K23" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="L23" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="M23" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="N23" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="O23" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="P23" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="Q23" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="R23" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="S23" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="T23" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="U23" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="V23" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="W23" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="X23" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="Y23" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="Z23" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="AA23" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="AB23" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="AC23" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="AD23" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="AE23" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="AF23" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="AG23" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
     </row>
     <row r="24" spans="1:33" x14ac:dyDescent="0.45">
@@ -3362,100 +3362,100 @@
         <v>24</v>
       </c>
       <c r="B24" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="C24" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="D24" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="E24" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="F24" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="G24" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="H24" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="I24" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="J24" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="K24" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="L24" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="M24" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="N24" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="O24" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="P24" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="Q24" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="R24" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="S24" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="T24" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="U24" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="V24" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="W24" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="X24" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="Y24" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="Z24" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="AA24" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="AB24" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="AC24" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="AD24" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="AE24" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="AF24" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="AG24" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
     </row>
     <row r="25" spans="1:33" x14ac:dyDescent="0.45">
@@ -3463,100 +3463,100 @@
         <v>25</v>
       </c>
       <c r="B25" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="C25" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="D25" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="E25" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="F25" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="G25" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="H25" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="I25" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="J25" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="K25" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="L25" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="M25" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="N25" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="O25" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="P25" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="Q25" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="R25" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="S25" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="T25" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="U25" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="V25" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="W25" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="X25" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="Y25" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="Z25" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="AA25" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="AB25" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="AC25" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="AD25" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="AE25" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="AF25" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="AG25" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
     </row>
     <row r="26" spans="1:33" ht="28.5" x14ac:dyDescent="0.45">
@@ -3564,100 +3564,100 @@
         <v>26</v>
       </c>
       <c r="B26" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="C26" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="D26" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="E26" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="F26" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="G26" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="H26" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="I26" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="J26" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="K26" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="L26" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="M26" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="N26" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="O26" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="P26" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="Q26" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="R26" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="S26" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="T26" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="U26" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="V26" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="W26" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="X26" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="Y26" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="Z26" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="AA26" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="AB26" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="AC26" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="AD26" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="AE26" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="AF26" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="AG26" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
     </row>
     <row r="27" spans="1:33" x14ac:dyDescent="0.45">
@@ -3665,100 +3665,100 @@
         <v>27</v>
       </c>
       <c r="B27" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="C27" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="D27" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="E27" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="F27" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="G27" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="H27" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="I27" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="J27" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="K27" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="L27" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="M27" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="N27" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="O27" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="P27" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="Q27" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="R27" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="S27" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="T27" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="U27" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="V27" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="W27" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="X27" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="Y27" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="Z27" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="AA27" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="AB27" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="AC27" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="AD27" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="AE27" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="AF27" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="AG27" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
     </row>
     <row r="28" spans="1:33" x14ac:dyDescent="0.45">
@@ -3766,100 +3766,100 @@
         <v>28</v>
       </c>
       <c r="B28" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="C28" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="D28" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="E28" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="F28" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="G28" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="H28" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="I28" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="J28" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="K28" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="L28" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="M28" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="N28" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="O28" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="P28" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="Q28" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="R28" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="S28" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="T28" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="U28" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="V28" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="W28" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="X28" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="Y28" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="Z28" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="AA28" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="AB28" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="AC28" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="AD28" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="AE28" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="AF28" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="AG28" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
     </row>
     <row r="29" spans="1:33" ht="28.5" x14ac:dyDescent="0.45">
@@ -3867,100 +3867,100 @@
         <v>29</v>
       </c>
       <c r="B29" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="C29" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="D29" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="E29" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="F29" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="G29" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="H29" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="I29" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="J29" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="K29" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="L29" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="M29" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="N29" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="O29" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="P29" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="Q29" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="R29" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="S29" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="T29" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="U29" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="V29" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="W29" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="X29" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="Y29" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="Z29" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="AA29" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="AB29" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="AC29" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="AD29" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="AE29" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="AF29" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="AG29" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
     </row>
     <row r="30" spans="1:33" x14ac:dyDescent="0.45">
@@ -3968,100 +3968,100 @@
         <v>30</v>
       </c>
       <c r="B30" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="C30" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="D30" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="E30" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="F30" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="G30" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="H30" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="I30" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="J30" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="K30" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="L30" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="M30" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="N30" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="O30" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="P30" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="Q30" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="R30" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="S30" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="T30" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="U30" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="V30" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="W30" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="X30" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="Y30" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="Z30" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="AA30" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="AB30" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="AC30" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="AD30" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="AE30" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="AF30" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="AG30" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
     </row>
     <row r="31" spans="1:33" x14ac:dyDescent="0.45">
@@ -4069,100 +4069,100 @@
         <v>31</v>
       </c>
       <c r="B31" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="C31" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="D31" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="E31" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="F31" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="G31" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="H31" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="I31" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="J31" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="K31" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="L31" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="M31" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="N31" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="O31" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="P31" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="Q31" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="R31" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="S31" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="T31" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="U31" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="V31" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="W31" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="X31" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="Y31" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="Z31" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="AA31" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="AB31" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="AC31" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="AD31" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="AE31" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="AF31" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="AG31" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
     </row>
     <row r="32" spans="1:33" x14ac:dyDescent="0.45">
@@ -4170,100 +4170,100 @@
         <v>32</v>
       </c>
       <c r="B32" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="C32" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="D32" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="E32" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="F32" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="G32" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="H32" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="I32" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="J32" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="K32" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="L32" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="M32" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="N32" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="O32" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="P32" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="Q32" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="R32" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="S32" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="T32" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="U32" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="V32" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="W32" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="X32" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="Y32" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="Z32" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="AA32" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="AB32" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="AC32" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="AD32" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="AE32" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="AF32" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="AG32" s="3">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
     </row>
   </sheetData>

--- a/data/matriz_costo_avion.xlsx
+++ b/data/matriz_costo_avion.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/fd171dda8de17894/Desktop/cerebro-patio/Cerebro/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="61" documentId="8_{779BFF23-F478-480E-BC26-60E4BB952075}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{46DB12C1-7B2B-4540-B0B8-074C4F18DE74}"/>
+  <xr:revisionPtr revIDLastSave="63" documentId="8_{779BFF23-F478-480E-BC26-60E4BB952075}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5A2506D4-FF98-464E-83F9-F36FCC4F4E8C}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{E07775A7-4B08-4E55-93F5-65AF3FCF621F}"/>
+    <workbookView xWindow="-19310" yWindow="2500" windowWidth="19420" windowHeight="10300" xr2:uid="{E07775A7-4B08-4E55-93F5-65AF3FCF621F}"/>
   </bookViews>
   <sheets>
     <sheet name="costo_avion" sheetId="1" r:id="rId1"/>
@@ -68,16 +68,19 @@
     <t>Punta Arenas</t>
   </si>
   <si>
-    <t>ciudad</t>
+    <t>La Serena</t>
   </si>
   <si>
-    <t>La Serena</t>
+    <t>Ciudad</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="42" formatCode="_ &quot;$&quot;* #,##0_ ;_ &quot;$&quot;* \-#,##0_ ;_ &quot;$&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -511,7 +514,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -554,11 +557,13 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" xfId="42" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="43">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Énfasis2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Énfasis3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -591,6 +596,7 @@
     <cellStyle name="Énfasis6" xfId="38" builtinId="49" customBuiltin="1"/>
     <cellStyle name="Entrada" xfId="9" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Incorrecto" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Moneda [0]" xfId="42" builtinId="7"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Notas" xfId="15" builtinId="10" customBuiltin="1"/>
@@ -634,10 +640,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -960,541 +962,541 @@
   <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:M13"/>
+      <selection sqref="A1:M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="1">
         <v>0</v>
       </c>
-      <c r="C2">
-        <v>10000000</v>
-      </c>
-      <c r="D2">
-        <v>10000000</v>
-      </c>
-      <c r="E2">
-        <v>10000000</v>
-      </c>
-      <c r="F2">
-        <v>10000000</v>
-      </c>
-      <c r="G2">
-        <v>10000000</v>
-      </c>
-      <c r="H2">
-        <v>204080</v>
-      </c>
-      <c r="I2">
-        <v>10000000</v>
-      </c>
-      <c r="J2">
-        <v>10000000</v>
-      </c>
-      <c r="K2">
-        <v>10000000</v>
-      </c>
-      <c r="L2">
-        <v>10000000</v>
-      </c>
-      <c r="M2">
-        <v>10000000</v>
+      <c r="C2" s="1">
+        <v>45000</v>
+      </c>
+      <c r="D2" s="1">
+        <v>189000</v>
+      </c>
+      <c r="E2" s="1">
+        <v>189000</v>
+      </c>
+      <c r="F2" s="1">
+        <v>174000</v>
+      </c>
+      <c r="G2" s="1">
+        <v>164000</v>
+      </c>
+      <c r="H2" s="1">
+        <v>104000</v>
+      </c>
+      <c r="I2" s="1">
+        <v>159000</v>
+      </c>
+      <c r="J2" s="1">
+        <v>164000</v>
+      </c>
+      <c r="K2" s="1">
+        <v>169000</v>
+      </c>
+      <c r="L2" s="1">
+        <v>185000</v>
+      </c>
+      <c r="M2" s="1">
+        <v>214000</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3">
-        <v>10000000</v>
-      </c>
-      <c r="C3">
+      <c r="B3" s="1">
+        <v>45000</v>
+      </c>
+      <c r="C3" s="1">
         <v>0</v>
       </c>
-      <c r="D3">
-        <v>55710</v>
-      </c>
-      <c r="E3">
-        <v>10000000</v>
-      </c>
-      <c r="F3">
-        <v>10000000</v>
-      </c>
-      <c r="G3">
-        <v>10000000</v>
-      </c>
-      <c r="H3">
-        <v>177405</v>
-      </c>
-      <c r="I3">
-        <v>10000000</v>
-      </c>
-      <c r="J3">
-        <v>10000000</v>
-      </c>
-      <c r="K3">
-        <v>10000000</v>
-      </c>
-      <c r="L3">
-        <v>10000000</v>
-      </c>
-      <c r="M3">
-        <v>10000000</v>
+      <c r="D3" s="1">
+        <v>50000</v>
+      </c>
+      <c r="E3" s="1">
+        <v>175000</v>
+      </c>
+      <c r="F3" s="1">
+        <v>160000</v>
+      </c>
+      <c r="G3" s="1">
+        <v>150000</v>
+      </c>
+      <c r="H3" s="1">
+        <v>90000</v>
+      </c>
+      <c r="I3" s="1">
+        <v>145000</v>
+      </c>
+      <c r="J3" s="1">
+        <v>150000</v>
+      </c>
+      <c r="K3" s="1">
+        <v>155000</v>
+      </c>
+      <c r="L3" s="1">
+        <v>171000</v>
+      </c>
+      <c r="M3" s="1">
+        <v>200000</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
+      <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4">
-        <v>10000000</v>
-      </c>
-      <c r="C4">
-        <v>55710</v>
-      </c>
-      <c r="D4">
+      <c r="B4" s="1">
+        <v>189000</v>
+      </c>
+      <c r="C4" s="1">
+        <v>50000</v>
+      </c>
+      <c r="D4" s="1">
         <v>0</v>
       </c>
-      <c r="E4">
-        <v>40871</v>
-      </c>
-      <c r="F4">
-        <v>10000000</v>
-      </c>
-      <c r="G4">
-        <v>10000000</v>
-      </c>
-      <c r="H4">
-        <v>141738</v>
-      </c>
-      <c r="I4">
-        <v>10000000</v>
-      </c>
-      <c r="J4">
-        <v>10000000</v>
-      </c>
-      <c r="K4">
-        <v>10000000</v>
-      </c>
-      <c r="L4">
-        <v>10000000</v>
-      </c>
-      <c r="M4">
-        <v>10000000</v>
+      <c r="E4" s="1">
+        <v>35000</v>
+      </c>
+      <c r="F4" s="1">
+        <v>155000</v>
+      </c>
+      <c r="G4" s="1">
+        <v>145000</v>
+      </c>
+      <c r="H4" s="1">
+        <v>85000</v>
+      </c>
+      <c r="I4" s="1">
+        <v>140000</v>
+      </c>
+      <c r="J4" s="1">
+        <v>145000</v>
+      </c>
+      <c r="K4" s="1">
+        <v>150000</v>
+      </c>
+      <c r="L4" s="1">
+        <v>166000</v>
+      </c>
+      <c r="M4" s="1">
+        <v>195000</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A5" t="s">
+      <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B5">
-        <v>10000000</v>
-      </c>
-      <c r="C5">
-        <v>10000000</v>
-      </c>
-      <c r="D5">
-        <v>40871</v>
-      </c>
-      <c r="E5">
+      <c r="B5" s="1">
+        <v>189000</v>
+      </c>
+      <c r="C5" s="1">
+        <v>175000</v>
+      </c>
+      <c r="D5" s="1">
+        <v>35000</v>
+      </c>
+      <c r="E5" s="1">
         <v>0</v>
       </c>
-      <c r="F5">
-        <v>10000000</v>
-      </c>
-      <c r="G5">
-        <v>10000000</v>
-      </c>
-      <c r="H5">
-        <v>154796</v>
-      </c>
-      <c r="I5">
-        <v>10000000</v>
-      </c>
-      <c r="J5">
-        <v>10000000</v>
-      </c>
-      <c r="K5">
-        <v>10000000</v>
-      </c>
-      <c r="L5">
-        <v>10000000</v>
-      </c>
-      <c r="M5">
-        <v>10000000</v>
+      <c r="F5" s="1">
+        <v>155000</v>
+      </c>
+      <c r="G5" s="1">
+        <v>145000</v>
+      </c>
+      <c r="H5" s="1">
+        <v>85000</v>
+      </c>
+      <c r="I5" s="1">
+        <v>140000</v>
+      </c>
+      <c r="J5" s="1">
+        <v>145000</v>
+      </c>
+      <c r="K5" s="1">
+        <v>150000</v>
+      </c>
+      <c r="L5" s="1">
+        <v>166000</v>
+      </c>
+      <c r="M5" s="1">
+        <v>195000</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A6" t="s">
+      <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B6">
-        <v>10000000</v>
-      </c>
-      <c r="C6">
-        <v>10000000</v>
-      </c>
-      <c r="D6">
-        <v>10000000</v>
-      </c>
-      <c r="E6">
-        <v>10000000</v>
-      </c>
-      <c r="F6">
+      <c r="B6" s="1">
+        <v>174000</v>
+      </c>
+      <c r="C6" s="1">
+        <v>160000</v>
+      </c>
+      <c r="D6" s="1">
+        <v>155000</v>
+      </c>
+      <c r="E6" s="1">
+        <v>155000</v>
+      </c>
+      <c r="F6" s="1">
         <v>0</v>
       </c>
-      <c r="G6">
-        <v>10000000</v>
-      </c>
-      <c r="H6">
-        <v>94666</v>
-      </c>
-      <c r="I6">
-        <v>10000000</v>
-      </c>
-      <c r="J6">
-        <v>10000000</v>
-      </c>
-      <c r="K6">
-        <v>10000000</v>
-      </c>
-      <c r="L6">
-        <v>10000000</v>
-      </c>
-      <c r="M6">
-        <v>10000000</v>
+      <c r="G6" s="1">
+        <v>130000</v>
+      </c>
+      <c r="H6" s="1">
+        <v>70000</v>
+      </c>
+      <c r="I6" s="1">
+        <v>125000</v>
+      </c>
+      <c r="J6" s="1">
+        <v>130000</v>
+      </c>
+      <c r="K6" s="1">
+        <v>135000</v>
+      </c>
+      <c r="L6" s="1">
+        <v>151000</v>
+      </c>
+      <c r="M6" s="1">
+        <v>180000</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7">
-        <v>10000000</v>
-      </c>
-      <c r="C7">
-        <v>10000000</v>
-      </c>
-      <c r="D7">
-        <v>10000000</v>
-      </c>
-      <c r="E7">
-        <v>10000000</v>
-      </c>
-      <c r="F7">
-        <v>10000000</v>
-      </c>
-      <c r="G7">
+      <c r="A7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="1">
+        <v>164000</v>
+      </c>
+      <c r="C7" s="1">
+        <v>150000</v>
+      </c>
+      <c r="D7" s="1">
+        <v>145000</v>
+      </c>
+      <c r="E7" s="1">
+        <v>145000</v>
+      </c>
+      <c r="F7" s="1">
+        <v>130000</v>
+      </c>
+      <c r="G7" s="1">
         <v>0</v>
       </c>
-      <c r="H7">
-        <v>62742</v>
-      </c>
-      <c r="I7">
-        <v>10000000</v>
-      </c>
-      <c r="J7">
-        <v>10000000</v>
-      </c>
-      <c r="K7">
-        <v>10000000</v>
-      </c>
-      <c r="L7">
-        <v>10000000</v>
-      </c>
-      <c r="M7">
-        <v>10000000</v>
+      <c r="H7" s="1">
+        <v>60000</v>
+      </c>
+      <c r="I7" s="1">
+        <v>115000</v>
+      </c>
+      <c r="J7" s="1">
+        <v>120000</v>
+      </c>
+      <c r="K7" s="1">
+        <v>125000</v>
+      </c>
+      <c r="L7" s="1">
+        <v>141000</v>
+      </c>
+      <c r="M7" s="1">
+        <v>170000</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A8" t="s">
+      <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B8">
-        <v>204080</v>
-      </c>
-      <c r="C8">
-        <v>177405</v>
-      </c>
-      <c r="D8">
-        <v>141738</v>
-      </c>
-      <c r="E8">
-        <v>154796</v>
-      </c>
-      <c r="F8">
-        <v>94666</v>
-      </c>
-      <c r="G8">
-        <v>62742</v>
-      </c>
-      <c r="H8">
+      <c r="B8" s="1">
+        <v>104000</v>
+      </c>
+      <c r="C8" s="1">
+        <v>90000</v>
+      </c>
+      <c r="D8" s="1">
+        <v>85000</v>
+      </c>
+      <c r="E8" s="1">
+        <v>85000</v>
+      </c>
+      <c r="F8" s="1">
+        <v>70000</v>
+      </c>
+      <c r="G8" s="1">
+        <v>60000</v>
+      </c>
+      <c r="H8" s="1">
         <v>0</v>
       </c>
-      <c r="I8">
-        <v>67203</v>
-      </c>
-      <c r="J8">
-        <v>88226</v>
-      </c>
-      <c r="K8">
-        <v>99795</v>
-      </c>
-      <c r="L8">
-        <v>120925</v>
-      </c>
-      <c r="M8">
-        <v>259856</v>
+      <c r="I8" s="1">
+        <v>55000</v>
+      </c>
+      <c r="J8" s="1">
+        <v>60000</v>
+      </c>
+      <c r="K8" s="1">
+        <v>65000</v>
+      </c>
+      <c r="L8" s="1">
+        <v>81000</v>
+      </c>
+      <c r="M8" s="1">
+        <v>110000</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A9" t="s">
+      <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B9">
-        <v>10000000</v>
-      </c>
-      <c r="C9">
-        <v>10000000</v>
-      </c>
-      <c r="D9">
-        <v>10000000</v>
-      </c>
-      <c r="E9">
-        <v>10000000</v>
-      </c>
-      <c r="F9">
-        <v>10000000</v>
-      </c>
-      <c r="G9">
-        <v>10000000</v>
-      </c>
-      <c r="H9">
-        <v>67203</v>
-      </c>
-      <c r="I9">
+      <c r="B9" s="1">
+        <v>159000</v>
+      </c>
+      <c r="C9" s="1">
+        <v>145000</v>
+      </c>
+      <c r="D9" s="1">
+        <v>140000</v>
+      </c>
+      <c r="E9" s="1">
+        <v>140000</v>
+      </c>
+      <c r="F9" s="1">
+        <v>125000</v>
+      </c>
+      <c r="G9" s="1">
+        <v>115000</v>
+      </c>
+      <c r="H9" s="1">
+        <v>55000</v>
+      </c>
+      <c r="I9" s="1">
         <v>0</v>
       </c>
-      <c r="J9">
-        <v>10000000</v>
-      </c>
-      <c r="K9">
-        <v>10000000</v>
-      </c>
-      <c r="L9">
-        <v>10000000</v>
-      </c>
-      <c r="M9">
-        <v>10000000</v>
+      <c r="J9" s="1">
+        <v>115000</v>
+      </c>
+      <c r="K9" s="1">
+        <v>120000</v>
+      </c>
+      <c r="L9" s="1">
+        <v>136000</v>
+      </c>
+      <c r="M9" s="1">
+        <v>165000</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A10" t="s">
+      <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B10">
-        <v>10000000</v>
-      </c>
-      <c r="C10">
-        <v>10000000</v>
-      </c>
-      <c r="D10">
-        <v>10000000</v>
-      </c>
-      <c r="E10">
-        <v>10000000</v>
-      </c>
-      <c r="F10">
-        <v>10000000</v>
-      </c>
-      <c r="G10">
-        <v>10000000</v>
-      </c>
-      <c r="H10">
-        <v>88226</v>
-      </c>
-      <c r="I10">
-        <v>10000000</v>
-      </c>
-      <c r="J10">
+      <c r="B10" s="1">
+        <v>164000</v>
+      </c>
+      <c r="C10" s="1">
+        <v>150000</v>
+      </c>
+      <c r="D10" s="1">
+        <v>145000</v>
+      </c>
+      <c r="E10" s="1">
+        <v>145000</v>
+      </c>
+      <c r="F10" s="1">
+        <v>130000</v>
+      </c>
+      <c r="G10" s="1">
+        <v>120000</v>
+      </c>
+      <c r="H10" s="1">
+        <v>60000</v>
+      </c>
+      <c r="I10" s="1">
+        <v>115000</v>
+      </c>
+      <c r="J10" s="1">
         <v>0</v>
       </c>
-      <c r="K10">
-        <v>10000000</v>
-      </c>
-      <c r="L10">
-        <v>10000000</v>
-      </c>
-      <c r="M10">
-        <v>10000000</v>
+      <c r="K10" s="1">
+        <v>125000</v>
+      </c>
+      <c r="L10" s="1">
+        <v>141000</v>
+      </c>
+      <c r="M10" s="1">
+        <v>170000</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A11" t="s">
+      <c r="A11" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B11">
-        <v>10000000</v>
-      </c>
-      <c r="C11">
-        <v>10000000</v>
-      </c>
-      <c r="D11">
-        <v>10000000</v>
-      </c>
-      <c r="E11">
-        <v>10000000</v>
-      </c>
-      <c r="F11">
-        <v>10000000</v>
-      </c>
-      <c r="G11">
-        <v>10000000</v>
-      </c>
-      <c r="H11">
-        <v>99795</v>
-      </c>
-      <c r="I11">
-        <v>10000000</v>
-      </c>
-      <c r="J11">
-        <v>10000000</v>
-      </c>
-      <c r="K11">
+      <c r="B11" s="1">
+        <v>169000</v>
+      </c>
+      <c r="C11" s="1">
+        <v>155000</v>
+      </c>
+      <c r="D11" s="1">
+        <v>150000</v>
+      </c>
+      <c r="E11" s="1">
+        <v>150000</v>
+      </c>
+      <c r="F11" s="1">
+        <v>135000</v>
+      </c>
+      <c r="G11" s="1">
+        <v>125000</v>
+      </c>
+      <c r="H11" s="1">
+        <v>65000</v>
+      </c>
+      <c r="I11" s="1">
+        <v>120000</v>
+      </c>
+      <c r="J11" s="1">
+        <v>125000</v>
+      </c>
+      <c r="K11" s="1">
         <v>0</v>
       </c>
-      <c r="L11">
-        <v>10000000</v>
-      </c>
-      <c r="M11">
-        <v>10000000</v>
+      <c r="L11" s="1">
+        <v>146000</v>
+      </c>
+      <c r="M11" s="1">
+        <v>175000</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A12" t="s">
+      <c r="A12" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B12">
-        <v>10000000</v>
-      </c>
-      <c r="C12">
-        <v>10000000</v>
-      </c>
-      <c r="D12">
-        <v>10000000</v>
-      </c>
-      <c r="E12">
-        <v>10000000</v>
-      </c>
-      <c r="F12">
-        <v>10000000</v>
-      </c>
-      <c r="G12">
-        <v>10000000</v>
-      </c>
-      <c r="H12">
-        <v>120925</v>
-      </c>
-      <c r="I12">
-        <v>10000000</v>
-      </c>
-      <c r="J12">
-        <v>10000000</v>
-      </c>
-      <c r="K12">
-        <v>10000000</v>
-      </c>
-      <c r="L12">
+      <c r="B12" s="1">
+        <v>185000</v>
+      </c>
+      <c r="C12" s="1">
+        <v>171000</v>
+      </c>
+      <c r="D12" s="1">
+        <v>166000</v>
+      </c>
+      <c r="E12" s="1">
+        <v>166000</v>
+      </c>
+      <c r="F12" s="1">
+        <v>151000</v>
+      </c>
+      <c r="G12" s="1">
+        <v>141000</v>
+      </c>
+      <c r="H12" s="1">
+        <v>81000</v>
+      </c>
+      <c r="I12" s="1">
+        <v>136000</v>
+      </c>
+      <c r="J12" s="1">
+        <v>141000</v>
+      </c>
+      <c r="K12" s="1">
+        <v>146000</v>
+      </c>
+      <c r="L12" s="1">
         <v>0</v>
       </c>
-      <c r="M12">
-        <v>10000000</v>
+      <c r="M12" s="1">
+        <v>191000</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A13" t="s">
+      <c r="A13" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B13">
-        <v>10000000</v>
-      </c>
-      <c r="C13">
-        <v>10000000</v>
-      </c>
-      <c r="D13">
-        <v>10000000</v>
-      </c>
-      <c r="E13">
-        <v>10000000</v>
-      </c>
-      <c r="F13">
-        <v>10000000</v>
-      </c>
-      <c r="G13">
-        <v>10000000</v>
-      </c>
-      <c r="H13">
-        <v>259856</v>
-      </c>
-      <c r="I13">
-        <v>10000000</v>
-      </c>
-      <c r="J13">
-        <v>10000000</v>
-      </c>
-      <c r="K13">
-        <v>10000000</v>
-      </c>
-      <c r="L13">
-        <v>10000000</v>
-      </c>
-      <c r="M13">
+      <c r="B13" s="1">
+        <v>214000</v>
+      </c>
+      <c r="C13" s="1">
+        <v>200000</v>
+      </c>
+      <c r="D13" s="1">
+        <v>195000</v>
+      </c>
+      <c r="E13" s="1">
+        <v>195000</v>
+      </c>
+      <c r="F13" s="1">
+        <v>180000</v>
+      </c>
+      <c r="G13" s="1">
+        <v>170000</v>
+      </c>
+      <c r="H13" s="1">
+        <v>110000</v>
+      </c>
+      <c r="I13" s="1">
+        <v>165000</v>
+      </c>
+      <c r="J13" s="1">
+        <v>170000</v>
+      </c>
+      <c r="K13" s="1">
+        <v>175000</v>
+      </c>
+      <c r="L13" s="1">
+        <v>191000</v>
+      </c>
+      <c r="M13" s="1">
         <v>0</v>
       </c>
     </row>

--- a/data/matriz_costo_avion.xlsx
+++ b/data/matriz_costo_avion.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/fd171dda8de17894/Desktop/cerebro-patio/Cerebro/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="63" documentId="8_{779BFF23-F478-480E-BC26-60E4BB952075}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5A2506D4-FF98-464E-83F9-F36FCC4F4E8C}"/>
+  <xr:revisionPtr revIDLastSave="71" documentId="8_{779BFF23-F478-480E-BC26-60E4BB952075}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{74C971F4-483A-419C-BE9E-0C3F539FAAF9}"/>
   <bookViews>
     <workbookView xWindow="-19310" yWindow="2500" windowWidth="19420" windowHeight="10300" xr2:uid="{E07775A7-4B08-4E55-93F5-65AF3FCF621F}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="16">
   <si>
     <t>Arica</t>
   </si>
@@ -72,6 +72,15 @@
   </si>
   <si>
     <t>Ciudad</t>
+  </si>
+  <si>
+    <t>chillán</t>
+  </si>
+  <si>
+    <t>chiloé</t>
+  </si>
+  <si>
+    <t>coquimbo</t>
   </si>
 </sst>
 </file>
@@ -608,7 +617,27 @@
     <cellStyle name="Título 3" xfId="4" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="4">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -959,15 +988,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D2896D2-9529-4573-B055-D0E1C7FFB44E}">
-  <dimension ref="A1:M13"/>
+  <dimension ref="A1:P17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection sqref="A1:M13"/>
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
@@ -1007,8 +1036,17 @@
       <c r="M1" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1048,8 +1086,17 @@
       <c r="M2" s="1">
         <v>214000</v>
       </c>
+      <c r="N2" s="1">
+        <v>100000</v>
+      </c>
+      <c r="O2" s="1">
+        <v>100000</v>
+      </c>
+      <c r="P2" s="1">
+        <v>100000</v>
+      </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -1089,8 +1136,17 @@
       <c r="M3" s="1">
         <v>200000</v>
       </c>
+      <c r="N3" s="1">
+        <v>100000</v>
+      </c>
+      <c r="O3" s="1">
+        <v>100000</v>
+      </c>
+      <c r="P3" s="1">
+        <v>100000</v>
+      </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -1130,8 +1186,17 @@
       <c r="M4" s="1">
         <v>195000</v>
       </c>
+      <c r="N4" s="1">
+        <v>100000</v>
+      </c>
+      <c r="O4" s="1">
+        <v>100000</v>
+      </c>
+      <c r="P4" s="1">
+        <v>100000</v>
+      </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -1171,8 +1236,17 @@
       <c r="M5" s="1">
         <v>195000</v>
       </c>
+      <c r="N5" s="1">
+        <v>100000</v>
+      </c>
+      <c r="O5" s="1">
+        <v>100000</v>
+      </c>
+      <c r="P5" s="1">
+        <v>100000</v>
+      </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -1212,8 +1286,17 @@
       <c r="M6" s="1">
         <v>180000</v>
       </c>
+      <c r="N6" s="1">
+        <v>100000</v>
+      </c>
+      <c r="O6" s="1">
+        <v>100000</v>
+      </c>
+      <c r="P6" s="1">
+        <v>100000</v>
+      </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
@@ -1253,8 +1336,17 @@
       <c r="M7" s="1">
         <v>170000</v>
       </c>
+      <c r="N7" s="1">
+        <v>100000</v>
+      </c>
+      <c r="O7" s="1">
+        <v>100000</v>
+      </c>
+      <c r="P7" s="1">
+        <v>100000</v>
+      </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
@@ -1294,8 +1386,17 @@
       <c r="M8" s="1">
         <v>110000</v>
       </c>
+      <c r="N8" s="1">
+        <v>100000</v>
+      </c>
+      <c r="O8" s="1">
+        <v>100000</v>
+      </c>
+      <c r="P8" s="1">
+        <v>100000</v>
+      </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
@@ -1335,8 +1436,17 @@
       <c r="M9" s="1">
         <v>165000</v>
       </c>
+      <c r="N9" s="1">
+        <v>100000</v>
+      </c>
+      <c r="O9" s="1">
+        <v>100000</v>
+      </c>
+      <c r="P9" s="1">
+        <v>100000</v>
+      </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
@@ -1376,8 +1486,17 @@
       <c r="M10" s="1">
         <v>170000</v>
       </c>
+      <c r="N10" s="1">
+        <v>100000</v>
+      </c>
+      <c r="O10" s="1">
+        <v>100000</v>
+      </c>
+      <c r="P10" s="1">
+        <v>100000</v>
+      </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
         <v>8</v>
       </c>
@@ -1417,8 +1536,17 @@
       <c r="M11" s="1">
         <v>175000</v>
       </c>
+      <c r="N11" s="1">
+        <v>100000</v>
+      </c>
+      <c r="O11" s="1">
+        <v>100000</v>
+      </c>
+      <c r="P11" s="1">
+        <v>100000</v>
+      </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
         <v>9</v>
       </c>
@@ -1458,8 +1586,17 @@
       <c r="M12" s="1">
         <v>191000</v>
       </c>
+      <c r="N12" s="1">
+        <v>100000</v>
+      </c>
+      <c r="O12" s="1">
+        <v>100000</v>
+      </c>
+      <c r="P12" s="1">
+        <v>100000</v>
+      </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
         <v>10</v>
       </c>
@@ -1498,13 +1635,183 @@
       </c>
       <c r="M13" s="1">
         <v>0</v>
+      </c>
+      <c r="N13" s="1">
+        <v>100000</v>
+      </c>
+      <c r="O13" s="1">
+        <v>100000</v>
+      </c>
+      <c r="P13" s="1">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1">
+        <v>100000</v>
+      </c>
+      <c r="C14" s="1">
+        <v>100000</v>
+      </c>
+      <c r="D14" s="1">
+        <v>100000</v>
+      </c>
+      <c r="E14" s="1">
+        <v>100000</v>
+      </c>
+      <c r="F14" s="1">
+        <v>100000</v>
+      </c>
+      <c r="G14" s="1">
+        <v>100000</v>
+      </c>
+      <c r="H14" s="1">
+        <v>100000</v>
+      </c>
+      <c r="I14" s="1">
+        <v>100000</v>
+      </c>
+      <c r="J14" s="1">
+        <v>100000</v>
+      </c>
+      <c r="K14" s="1">
+        <v>100000</v>
+      </c>
+      <c r="L14" s="1">
+        <v>100000</v>
+      </c>
+      <c r="M14" s="1">
+        <v>100000</v>
+      </c>
+      <c r="N14" s="1">
+        <v>100000</v>
+      </c>
+      <c r="O14" s="1">
+        <v>100000</v>
+      </c>
+      <c r="P14" s="1">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1">
+        <v>100000</v>
+      </c>
+      <c r="C15" s="1">
+        <v>100000</v>
+      </c>
+      <c r="D15" s="1">
+        <v>100000</v>
+      </c>
+      <c r="E15" s="1">
+        <v>100000</v>
+      </c>
+      <c r="F15" s="1">
+        <v>100000</v>
+      </c>
+      <c r="G15" s="1">
+        <v>100000</v>
+      </c>
+      <c r="H15" s="1">
+        <v>100000</v>
+      </c>
+      <c r="I15" s="1">
+        <v>100000</v>
+      </c>
+      <c r="J15" s="1">
+        <v>100000</v>
+      </c>
+      <c r="K15" s="1">
+        <v>100000</v>
+      </c>
+      <c r="L15" s="1">
+        <v>100000</v>
+      </c>
+      <c r="M15" s="1">
+        <v>100000</v>
+      </c>
+      <c r="N15" s="1">
+        <v>100000</v>
+      </c>
+      <c r="O15" s="1">
+        <v>100000</v>
+      </c>
+      <c r="P15" s="1">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1">
+        <v>100000</v>
+      </c>
+      <c r="C16" s="1">
+        <v>100000</v>
+      </c>
+      <c r="D16" s="1">
+        <v>100000</v>
+      </c>
+      <c r="E16" s="1">
+        <v>100000</v>
+      </c>
+      <c r="F16" s="1">
+        <v>100000</v>
+      </c>
+      <c r="G16" s="1">
+        <v>100000</v>
+      </c>
+      <c r="H16" s="1">
+        <v>100000</v>
+      </c>
+      <c r="I16" s="1">
+        <v>100000</v>
+      </c>
+      <c r="J16" s="1">
+        <v>100000</v>
+      </c>
+      <c r="K16" s="1">
+        <v>100000</v>
+      </c>
+      <c r="L16" s="1">
+        <v>100000</v>
+      </c>
+      <c r="M16" s="1">
+        <v>100000</v>
+      </c>
+      <c r="N16" s="1">
+        <v>100000</v>
+      </c>
+      <c r="O16" s="1">
+        <v>100000</v>
+      </c>
+      <c r="P16" s="1">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="17" spans="14:16" x14ac:dyDescent="0.45">
+      <c r="N17" s="1">
+        <v>100000</v>
+      </c>
+      <c r="O17" s="1">
+        <v>100000</v>
+      </c>
+      <c r="P17" s="1">
+        <v>100000</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="3"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P1">
+  <conditionalFormatting sqref="N1:P1">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/matriz_costo_avion.xlsx
+++ b/data/matriz_costo_avion.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/fd171dda8de17894/Desktop/cerebro-patio/Cerebro/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="71" documentId="8_{779BFF23-F478-480E-BC26-60E4BB952075}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{74C971F4-483A-419C-BE9E-0C3F539FAAF9}"/>
+  <xr:revisionPtr revIDLastSave="72" documentId="8_{779BFF23-F478-480E-BC26-60E4BB952075}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A4B7CDDA-2C7A-4C8C-B7E8-207F0F75D275}"/>
   <bookViews>
-    <workbookView xWindow="-19310" yWindow="2500" windowWidth="19420" windowHeight="10300" xr2:uid="{E07775A7-4B08-4E55-93F5-65AF3FCF621F}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{E07775A7-4B08-4E55-93F5-65AF3FCF621F}"/>
   </bookViews>
   <sheets>
     <sheet name="costo_avion" sheetId="1" r:id="rId1"/>
@@ -617,27 +617,7 @@
     <cellStyle name="Título 3" xfId="4" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="4">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -991,7 +971,7 @@
   <dimension ref="A1:P17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+      <selection activeCell="N17" sqref="N17:P17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1797,19 +1777,13 @@
       </c>
     </row>
     <row r="17" spans="14:16" x14ac:dyDescent="0.45">
-      <c r="N17" s="1">
-        <v>100000</v>
-      </c>
-      <c r="O17" s="1">
-        <v>100000</v>
-      </c>
-      <c r="P17" s="1">
-        <v>100000</v>
-      </c>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="duplicateValues" dxfId="3" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N1:P1">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>

--- a/data/matriz_costo_avion.xlsx
+++ b/data/matriz_costo_avion.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/fd171dda8de17894/Desktop/cerebro-patio/Cerebro/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="72" documentId="8_{779BFF23-F478-480E-BC26-60E4BB952075}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A4B7CDDA-2C7A-4C8C-B7E8-207F0F75D275}"/>
+  <xr:revisionPtr revIDLastSave="75" documentId="8_{779BFF23-F478-480E-BC26-60E4BB952075}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B030977C-5AD3-4203-8D9C-1C6A76224D36}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{E07775A7-4B08-4E55-93F5-65AF3FCF621F}"/>
   </bookViews>
@@ -971,10 +971,13 @@
   <dimension ref="A1:P17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="N17" sqref="N17:P17"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="2" max="2" width="14.53125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
@@ -1067,13 +1070,13 @@
         <v>214000</v>
       </c>
       <c r="N2" s="1">
-        <v>100000</v>
+        <v>1000000000</v>
       </c>
       <c r="O2" s="1">
-        <v>100000</v>
+        <v>1000000000</v>
       </c>
       <c r="P2" s="1">
-        <v>100000</v>
+        <v>1000000000</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.45">
@@ -1117,13 +1120,13 @@
         <v>200000</v>
       </c>
       <c r="N3" s="1">
-        <v>100000</v>
+        <v>1000000000</v>
       </c>
       <c r="O3" s="1">
-        <v>100000</v>
+        <v>1000000000</v>
       </c>
       <c r="P3" s="1">
-        <v>100000</v>
+        <v>1000000000</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.45">
@@ -1167,13 +1170,13 @@
         <v>195000</v>
       </c>
       <c r="N4" s="1">
-        <v>100000</v>
+        <v>1000000000</v>
       </c>
       <c r="O4" s="1">
-        <v>100000</v>
+        <v>1000000000</v>
       </c>
       <c r="P4" s="1">
-        <v>100000</v>
+        <v>1000000000</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.45">
@@ -1217,13 +1220,13 @@
         <v>195000</v>
       </c>
       <c r="N5" s="1">
-        <v>100000</v>
+        <v>1000000000</v>
       </c>
       <c r="O5" s="1">
-        <v>100000</v>
+        <v>1000000000</v>
       </c>
       <c r="P5" s="1">
-        <v>100000</v>
+        <v>1000000000</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.45">
@@ -1267,13 +1270,13 @@
         <v>180000</v>
       </c>
       <c r="N6" s="1">
-        <v>100000</v>
+        <v>1000000000</v>
       </c>
       <c r="O6" s="1">
-        <v>100000</v>
+        <v>1000000000</v>
       </c>
       <c r="P6" s="1">
-        <v>100000</v>
+        <v>1000000000</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.45">
@@ -1317,13 +1320,13 @@
         <v>170000</v>
       </c>
       <c r="N7" s="1">
-        <v>100000</v>
+        <v>1000000000</v>
       </c>
       <c r="O7" s="1">
-        <v>100000</v>
+        <v>1000000000</v>
       </c>
       <c r="P7" s="1">
-        <v>100000</v>
+        <v>1000000000</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.45">
@@ -1367,13 +1370,13 @@
         <v>110000</v>
       </c>
       <c r="N8" s="1">
-        <v>100000</v>
+        <v>1000000000</v>
       </c>
       <c r="O8" s="1">
-        <v>100000</v>
+        <v>1000000000</v>
       </c>
       <c r="P8" s="1">
-        <v>100000</v>
+        <v>1000000000</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.45">
@@ -1417,13 +1420,13 @@
         <v>165000</v>
       </c>
       <c r="N9" s="1">
-        <v>100000</v>
+        <v>1000000000</v>
       </c>
       <c r="O9" s="1">
-        <v>100000</v>
+        <v>1000000000</v>
       </c>
       <c r="P9" s="1">
-        <v>100000</v>
+        <v>1000000000</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.45">
@@ -1467,13 +1470,13 @@
         <v>170000</v>
       </c>
       <c r="N10" s="1">
-        <v>100000</v>
+        <v>1000000000</v>
       </c>
       <c r="O10" s="1">
-        <v>100000</v>
+        <v>1000000000</v>
       </c>
       <c r="P10" s="1">
-        <v>100000</v>
+        <v>1000000000</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.45">
@@ -1517,13 +1520,13 @@
         <v>175000</v>
       </c>
       <c r="N11" s="1">
-        <v>100000</v>
+        <v>1000000000</v>
       </c>
       <c r="O11" s="1">
-        <v>100000</v>
+        <v>1000000000</v>
       </c>
       <c r="P11" s="1">
-        <v>100000</v>
+        <v>1000000000</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.45">
@@ -1567,13 +1570,13 @@
         <v>191000</v>
       </c>
       <c r="N12" s="1">
-        <v>100000</v>
+        <v>1000000000</v>
       </c>
       <c r="O12" s="1">
-        <v>100000</v>
+        <v>1000000000</v>
       </c>
       <c r="P12" s="1">
-        <v>100000</v>
+        <v>1000000000</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.45">
@@ -1617,13 +1620,13 @@
         <v>0</v>
       </c>
       <c r="N13" s="1">
-        <v>100000</v>
+        <v>1000000000</v>
       </c>
       <c r="O13" s="1">
-        <v>100000</v>
+        <v>1000000000</v>
       </c>
       <c r="P13" s="1">
-        <v>100000</v>
+        <v>1000000000</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.45">
@@ -1631,49 +1634,49 @@
         <v>13</v>
       </c>
       <c r="B14" s="1">
-        <v>100000</v>
+        <v>1000000000</v>
       </c>
       <c r="C14" s="1">
-        <v>100000</v>
+        <v>1000000000</v>
       </c>
       <c r="D14" s="1">
-        <v>100000</v>
+        <v>1000000000</v>
       </c>
       <c r="E14" s="1">
-        <v>100000</v>
+        <v>1000000000</v>
       </c>
       <c r="F14" s="1">
-        <v>100000</v>
+        <v>1000000000</v>
       </c>
       <c r="G14" s="1">
-        <v>100000</v>
+        <v>1000000000</v>
       </c>
       <c r="H14" s="1">
-        <v>100000</v>
+        <v>1000000000</v>
       </c>
       <c r="I14" s="1">
-        <v>100000</v>
+        <v>1000000000</v>
       </c>
       <c r="J14" s="1">
-        <v>100000</v>
+        <v>1000000000</v>
       </c>
       <c r="K14" s="1">
-        <v>100000</v>
+        <v>1000000000</v>
       </c>
       <c r="L14" s="1">
-        <v>100000</v>
+        <v>1000000000</v>
       </c>
       <c r="M14" s="1">
-        <v>100000</v>
+        <v>1000000000</v>
       </c>
       <c r="N14" s="1">
-        <v>100000</v>
+        <v>1000000000</v>
       </c>
       <c r="O14" s="1">
-        <v>100000</v>
+        <v>1000000000</v>
       </c>
       <c r="P14" s="1">
-        <v>100000</v>
+        <v>1000000000</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.45">
@@ -1681,49 +1684,49 @@
         <v>14</v>
       </c>
       <c r="B15" s="1">
-        <v>100000</v>
+        <v>1000000000</v>
       </c>
       <c r="C15" s="1">
-        <v>100000</v>
+        <v>1000000000</v>
       </c>
       <c r="D15" s="1">
-        <v>100000</v>
+        <v>1000000000</v>
       </c>
       <c r="E15" s="1">
-        <v>100000</v>
+        <v>1000000000</v>
       </c>
       <c r="F15" s="1">
-        <v>100000</v>
+        <v>1000000000</v>
       </c>
       <c r="G15" s="1">
-        <v>100000</v>
+        <v>1000000000</v>
       </c>
       <c r="H15" s="1">
-        <v>100000</v>
+        <v>1000000000</v>
       </c>
       <c r="I15" s="1">
-        <v>100000</v>
+        <v>1000000000</v>
       </c>
       <c r="J15" s="1">
-        <v>100000</v>
+        <v>1000000000</v>
       </c>
       <c r="K15" s="1">
-        <v>100000</v>
+        <v>1000000000</v>
       </c>
       <c r="L15" s="1">
-        <v>100000</v>
+        <v>1000000000</v>
       </c>
       <c r="M15" s="1">
-        <v>100000</v>
+        <v>1000000000</v>
       </c>
       <c r="N15" s="1">
-        <v>100000</v>
+        <v>1000000000</v>
       </c>
       <c r="O15" s="1">
-        <v>100000</v>
+        <v>1000000000</v>
       </c>
       <c r="P15" s="1">
-        <v>100000</v>
+        <v>1000000000</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.45">
@@ -1731,49 +1734,49 @@
         <v>15</v>
       </c>
       <c r="B16" s="1">
-        <v>100000</v>
+        <v>1000000000</v>
       </c>
       <c r="C16" s="1">
-        <v>100000</v>
+        <v>1000000000</v>
       </c>
       <c r="D16" s="1">
-        <v>100000</v>
+        <v>1000000000</v>
       </c>
       <c r="E16" s="1">
-        <v>100000</v>
+        <v>1000000000</v>
       </c>
       <c r="F16" s="1">
-        <v>100000</v>
+        <v>1000000000</v>
       </c>
       <c r="G16" s="1">
-        <v>100000</v>
+        <v>1000000000</v>
       </c>
       <c r="H16" s="1">
-        <v>100000</v>
+        <v>1000000000</v>
       </c>
       <c r="I16" s="1">
-        <v>100000</v>
+        <v>1000000000</v>
       </c>
       <c r="J16" s="1">
-        <v>100000</v>
+        <v>1000000000</v>
       </c>
       <c r="K16" s="1">
-        <v>100000</v>
+        <v>1000000000</v>
       </c>
       <c r="L16" s="1">
-        <v>100000</v>
+        <v>1000000000</v>
       </c>
       <c r="M16" s="1">
-        <v>100000</v>
+        <v>1000000000</v>
       </c>
       <c r="N16" s="1">
-        <v>100000</v>
+        <v>1000000000</v>
       </c>
       <c r="O16" s="1">
-        <v>100000</v>
+        <v>1000000000</v>
       </c>
       <c r="P16" s="1">
-        <v>100000</v>
+        <v>1000000000</v>
       </c>
     </row>
     <row r="17" spans="14:16" x14ac:dyDescent="0.45">

--- a/data/matriz_costo_avion.xlsx
+++ b/data/matriz_costo_avion.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/fd171dda8de17894/Desktop/cerebro-patio/Cerebro/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="75" documentId="8_{779BFF23-F478-480E-BC26-60E4BB952075}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B030977C-5AD3-4203-8D9C-1C6A76224D36}"/>
+  <xr:revisionPtr revIDLastSave="89" documentId="8_{779BFF23-F478-480E-BC26-60E4BB952075}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F8A558EC-A642-437D-90AF-E20D12A118D0}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{E07775A7-4B08-4E55-93F5-65AF3FCF621F}"/>
+    <workbookView xWindow="-19310" yWindow="2500" windowWidth="19420" windowHeight="10300" xr2:uid="{E07775A7-4B08-4E55-93F5-65AF3FCF621F}"/>
   </bookViews>
   <sheets>
     <sheet name="costo_avion" sheetId="1" r:id="rId1"/>
@@ -35,19 +35,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="16">
   <si>
-    <t>Arica</t>
-  </si>
-  <si>
-    <t>Iquique</t>
-  </si>
-  <si>
     <t>Antofagasta</t>
-  </si>
-  <si>
-    <t>Calama</t>
-  </si>
-  <si>
-    <t>Copiapó</t>
   </si>
   <si>
     <t>Santiago</t>
@@ -59,37 +47,46 @@
     <t>Temuco</t>
   </si>
   <si>
-    <t>Valdivia</t>
-  </si>
-  <si>
     <t>Puerto Montt</t>
-  </si>
-  <si>
-    <t>Punta Arenas</t>
   </si>
   <si>
     <t>La Serena</t>
   </si>
   <si>
-    <t>Ciudad</t>
+    <t>Chillán</t>
   </si>
   <si>
-    <t>chillán</t>
+    <t>Chiloé</t>
   </si>
   <si>
-    <t>chiloé</t>
+    <t>Coquimbo</t>
   </si>
   <si>
-    <t>coquimbo</t>
+    <t>ciudad</t>
+  </si>
+  <si>
+    <t>Valparaíso</t>
+  </si>
+  <si>
+    <t>Rancagua</t>
+  </si>
+  <si>
+    <t>Curanilahue</t>
+  </si>
+  <si>
+    <t>Los Ángeles</t>
+  </si>
+  <si>
+    <t>Talca</t>
+  </si>
+  <si>
+    <t>Curicó</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="42" formatCode="_ &quot;$&quot;* #,##0_ ;_ &quot;$&quot;* \-#,##0_ ;_ &quot;$&quot;* &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -523,7 +520,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="43">
+  <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -566,13 +563,11 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" xfId="42" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="43">
+  <cellStyles count="42">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Énfasis2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Énfasis3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -605,7 +600,6 @@
     <cellStyle name="Énfasis6" xfId="38" builtinId="49" customBuiltin="1"/>
     <cellStyle name="Entrada" xfId="9" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Incorrecto" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Moneda [0]" xfId="42" builtinId="7"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Notas" xfId="15" builtinId="10" customBuiltin="1"/>
@@ -968,825 +962,817 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D2896D2-9529-4573-B055-D0E1C7FFB44E}">
-  <dimension ref="A1:P17"/>
+  <dimension ref="A1:P16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="2" max="2" width="14.53125" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="K1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="L1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M1" t="s">
+        <v>14</v>
+      </c>
+      <c r="N1" t="s">
+        <v>15</v>
+      </c>
+      <c r="O1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J1" s="1" t="s">
+      <c r="P1" t="s">
         <v>7</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A2" s="1" t="s">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1">
-        <v>0</v>
-      </c>
-      <c r="C2" s="1">
-        <v>45000</v>
-      </c>
-      <c r="D2" s="1">
-        <v>189000</v>
-      </c>
-      <c r="E2" s="1">
-        <v>189000</v>
-      </c>
-      <c r="F2" s="1">
-        <v>174000</v>
-      </c>
-      <c r="G2" s="1">
-        <v>164000</v>
-      </c>
-      <c r="H2" s="1">
-        <v>104000</v>
-      </c>
-      <c r="I2" s="1">
-        <v>159000</v>
-      </c>
-      <c r="J2" s="1">
-        <v>164000</v>
-      </c>
-      <c r="K2" s="1">
-        <v>169000</v>
-      </c>
-      <c r="L2" s="1">
-        <v>185000</v>
-      </c>
-      <c r="M2" s="1">
-        <v>214000</v>
-      </c>
-      <c r="N2" s="1">
-        <v>1000000000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>1000000000</v>
-      </c>
-      <c r="P2" s="1">
-        <v>1000000000</v>
+      <c r="B2">
+        <v>10000000</v>
+      </c>
+      <c r="C2">
+        <v>10000000</v>
+      </c>
+      <c r="D2">
+        <v>10000000</v>
+      </c>
+      <c r="E2">
+        <v>1416910000000</v>
+      </c>
+      <c r="F2">
+        <v>1416910000000</v>
+      </c>
+      <c r="G2">
+        <v>1416910000000</v>
+      </c>
+      <c r="H2">
+        <v>10000000</v>
+      </c>
+      <c r="I2">
+        <v>10000000</v>
+      </c>
+      <c r="J2">
+        <v>10000000</v>
+      </c>
+      <c r="K2">
+        <v>10000000</v>
+      </c>
+      <c r="L2">
+        <v>10000000</v>
+      </c>
+      <c r="M2">
+        <v>10000000</v>
+      </c>
+      <c r="N2">
+        <v>10000000</v>
+      </c>
+      <c r="O2">
+        <v>10000000</v>
+      </c>
+      <c r="P2">
+        <v>10000000</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1">
-        <v>45000</v>
-      </c>
-      <c r="C3" s="1">
-        <v>0</v>
-      </c>
-      <c r="D3" s="1">
-        <v>50000</v>
-      </c>
-      <c r="E3" s="1">
-        <v>175000</v>
-      </c>
-      <c r="F3" s="1">
-        <v>160000</v>
-      </c>
-      <c r="G3" s="1">
-        <v>150000</v>
-      </c>
-      <c r="H3" s="1">
-        <v>90000</v>
-      </c>
-      <c r="I3" s="1">
-        <v>145000</v>
-      </c>
-      <c r="J3" s="1">
-        <v>150000</v>
-      </c>
-      <c r="K3" s="1">
-        <v>155000</v>
-      </c>
-      <c r="L3" s="1">
-        <v>171000</v>
-      </c>
-      <c r="M3" s="1">
-        <v>200000</v>
-      </c>
-      <c r="N3" s="1">
-        <v>1000000000</v>
-      </c>
-      <c r="O3" s="1">
-        <v>1000000000</v>
-      </c>
-      <c r="P3" s="1">
-        <v>1000000000</v>
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <v>10000000</v>
+      </c>
+      <c r="C3">
+        <v>10000000</v>
+      </c>
+      <c r="D3">
+        <v>10000000</v>
+      </c>
+      <c r="E3">
+        <v>62696</v>
+      </c>
+      <c r="F3">
+        <v>62696</v>
+      </c>
+      <c r="G3">
+        <v>62696</v>
+      </c>
+      <c r="H3">
+        <v>10000000</v>
+      </c>
+      <c r="I3">
+        <v>10000000</v>
+      </c>
+      <c r="J3">
+        <v>10000000</v>
+      </c>
+      <c r="K3">
+        <v>10000000</v>
+      </c>
+      <c r="L3">
+        <v>10000000</v>
+      </c>
+      <c r="M3">
+        <v>10000000</v>
+      </c>
+      <c r="N3">
+        <v>10000000</v>
+      </c>
+      <c r="O3">
+        <v>10000000</v>
+      </c>
+      <c r="P3">
+        <v>10000000</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="1">
-        <v>189000</v>
-      </c>
-      <c r="C4" s="1">
-        <v>50000</v>
-      </c>
-      <c r="D4" s="1">
-        <v>0</v>
-      </c>
-      <c r="E4" s="1">
-        <v>35000</v>
-      </c>
-      <c r="F4" s="1">
-        <v>155000</v>
-      </c>
-      <c r="G4" s="1">
-        <v>145000</v>
-      </c>
-      <c r="H4" s="1">
-        <v>85000</v>
-      </c>
-      <c r="I4" s="1">
-        <v>140000</v>
-      </c>
-      <c r="J4" s="1">
-        <v>145000</v>
-      </c>
-      <c r="K4" s="1">
-        <v>150000</v>
-      </c>
-      <c r="L4" s="1">
-        <v>166000</v>
-      </c>
-      <c r="M4" s="1">
-        <v>195000</v>
-      </c>
-      <c r="N4" s="1">
-        <v>1000000000</v>
-      </c>
-      <c r="O4" s="1">
-        <v>1000000000</v>
-      </c>
-      <c r="P4" s="1">
-        <v>1000000000</v>
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4">
+        <v>10000000</v>
+      </c>
+      <c r="C4">
+        <v>10000000</v>
+      </c>
+      <c r="D4">
+        <v>10000000</v>
+      </c>
+      <c r="E4">
+        <v>62696</v>
+      </c>
+      <c r="F4">
+        <v>62696</v>
+      </c>
+      <c r="G4">
+        <v>62696</v>
+      </c>
+      <c r="H4">
+        <v>10000000</v>
+      </c>
+      <c r="I4">
+        <v>10000000</v>
+      </c>
+      <c r="J4">
+        <v>10000000</v>
+      </c>
+      <c r="K4">
+        <v>10000000</v>
+      </c>
+      <c r="L4">
+        <v>10000000</v>
+      </c>
+      <c r="M4">
+        <v>10000000</v>
+      </c>
+      <c r="N4">
+        <v>10000000</v>
+      </c>
+      <c r="O4">
+        <v>10000000</v>
+      </c>
+      <c r="P4">
+        <v>10000000</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="1">
-        <v>189000</v>
-      </c>
-      <c r="C5" s="1">
-        <v>175000</v>
-      </c>
-      <c r="D5" s="1">
-        <v>35000</v>
-      </c>
-      <c r="E5" s="1">
-        <v>0</v>
-      </c>
-      <c r="F5" s="1">
-        <v>155000</v>
-      </c>
-      <c r="G5" s="1">
-        <v>145000</v>
-      </c>
-      <c r="H5" s="1">
-        <v>85000</v>
-      </c>
-      <c r="I5" s="1">
-        <v>140000</v>
-      </c>
-      <c r="J5" s="1">
-        <v>145000</v>
-      </c>
-      <c r="K5" s="1">
-        <v>150000</v>
-      </c>
-      <c r="L5" s="1">
-        <v>166000</v>
-      </c>
-      <c r="M5" s="1">
-        <v>195000</v>
-      </c>
-      <c r="N5" s="1">
-        <v>1000000000</v>
-      </c>
-      <c r="O5" s="1">
-        <v>1000000000</v>
-      </c>
-      <c r="P5" s="1">
-        <v>1000000000</v>
+      <c r="A5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>1416910000000</v>
+      </c>
+      <c r="C5">
+        <v>62696</v>
+      </c>
+      <c r="D5">
+        <v>62696</v>
+      </c>
+      <c r="E5">
+        <v>10000000</v>
+      </c>
+      <c r="F5">
+        <v>10000000</v>
+      </c>
+      <c r="G5">
+        <v>10000000</v>
+      </c>
+      <c r="H5">
+        <v>67234</v>
+      </c>
+      <c r="I5">
+        <v>67234</v>
+      </c>
+      <c r="J5">
+        <v>67234</v>
+      </c>
+      <c r="K5">
+        <v>910000000184</v>
+      </c>
+      <c r="L5">
+        <v>71733</v>
+      </c>
+      <c r="M5">
+        <v>45686</v>
+      </c>
+      <c r="N5">
+        <v>45686</v>
+      </c>
+      <c r="O5">
+        <v>1210000000977</v>
+      </c>
+      <c r="P5">
+        <v>1331310000000</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="1">
-        <v>174000</v>
-      </c>
-      <c r="C6" s="1">
-        <v>160000</v>
-      </c>
-      <c r="D6" s="1">
-        <v>155000</v>
-      </c>
-      <c r="E6" s="1">
-        <v>155000</v>
-      </c>
-      <c r="F6" s="1">
-        <v>0</v>
-      </c>
-      <c r="G6" s="1">
-        <v>130000</v>
-      </c>
-      <c r="H6" s="1">
-        <v>70000</v>
-      </c>
-      <c r="I6" s="1">
-        <v>125000</v>
-      </c>
-      <c r="J6" s="1">
-        <v>130000</v>
-      </c>
-      <c r="K6" s="1">
-        <v>135000</v>
-      </c>
-      <c r="L6" s="1">
-        <v>151000</v>
-      </c>
-      <c r="M6" s="1">
-        <v>180000</v>
-      </c>
-      <c r="N6" s="1">
-        <v>1000000000</v>
-      </c>
-      <c r="O6" s="1">
-        <v>1000000000</v>
-      </c>
-      <c r="P6" s="1">
-        <v>1000000000</v>
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6">
+        <v>1416910000000</v>
+      </c>
+      <c r="C6">
+        <v>62696</v>
+      </c>
+      <c r="D6">
+        <v>62696</v>
+      </c>
+      <c r="E6">
+        <v>10000000</v>
+      </c>
+      <c r="F6">
+        <v>10000000</v>
+      </c>
+      <c r="G6">
+        <v>10000000</v>
+      </c>
+      <c r="H6">
+        <v>67234</v>
+      </c>
+      <c r="I6">
+        <v>67234</v>
+      </c>
+      <c r="J6">
+        <v>67234</v>
+      </c>
+      <c r="K6">
+        <v>910000000184</v>
+      </c>
+      <c r="L6">
+        <v>71733</v>
+      </c>
+      <c r="M6">
+        <v>45686</v>
+      </c>
+      <c r="N6">
+        <v>45686</v>
+      </c>
+      <c r="O6">
+        <v>1210000000977</v>
+      </c>
+      <c r="P6">
+        <v>1331310000000</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A7" s="1" t="s">
+      <c r="A7" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="1">
-        <v>164000</v>
-      </c>
-      <c r="C7" s="1">
-        <v>150000</v>
-      </c>
-      <c r="D7" s="1">
-        <v>145000</v>
-      </c>
-      <c r="E7" s="1">
-        <v>145000</v>
-      </c>
-      <c r="F7" s="1">
-        <v>130000</v>
-      </c>
-      <c r="G7" s="1">
-        <v>0</v>
-      </c>
-      <c r="H7" s="1">
-        <v>60000</v>
-      </c>
-      <c r="I7" s="1">
-        <v>115000</v>
-      </c>
-      <c r="J7" s="1">
-        <v>120000</v>
-      </c>
-      <c r="K7" s="1">
-        <v>125000</v>
-      </c>
-      <c r="L7" s="1">
-        <v>141000</v>
-      </c>
-      <c r="M7" s="1">
-        <v>170000</v>
-      </c>
-      <c r="N7" s="1">
-        <v>1000000000</v>
-      </c>
-      <c r="O7" s="1">
-        <v>1000000000</v>
-      </c>
-      <c r="P7" s="1">
-        <v>1000000000</v>
+      <c r="B7">
+        <v>1416910000000</v>
+      </c>
+      <c r="C7">
+        <v>62696</v>
+      </c>
+      <c r="D7">
+        <v>62696</v>
+      </c>
+      <c r="E7">
+        <v>10000000</v>
+      </c>
+      <c r="F7">
+        <v>10000000</v>
+      </c>
+      <c r="G7">
+        <v>10000000</v>
+      </c>
+      <c r="H7">
+        <v>67234</v>
+      </c>
+      <c r="I7">
+        <v>67234</v>
+      </c>
+      <c r="J7">
+        <v>67234</v>
+      </c>
+      <c r="K7">
+        <v>910000000184</v>
+      </c>
+      <c r="L7">
+        <v>71733</v>
+      </c>
+      <c r="M7">
+        <v>45686</v>
+      </c>
+      <c r="N7">
+        <v>45686</v>
+      </c>
+      <c r="O7">
+        <v>1210000000977</v>
+      </c>
+      <c r="P7">
+        <v>1331310000000</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A8" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="1">
-        <v>104000</v>
-      </c>
-      <c r="C8" s="1">
-        <v>90000</v>
-      </c>
-      <c r="D8" s="1">
-        <v>85000</v>
-      </c>
-      <c r="E8" s="1">
-        <v>85000</v>
-      </c>
-      <c r="F8" s="1">
-        <v>70000</v>
-      </c>
-      <c r="G8" s="1">
-        <v>60000</v>
-      </c>
-      <c r="H8" s="1">
-        <v>0</v>
-      </c>
-      <c r="I8" s="1">
-        <v>55000</v>
-      </c>
-      <c r="J8" s="1">
-        <v>60000</v>
-      </c>
-      <c r="K8" s="1">
-        <v>65000</v>
-      </c>
-      <c r="L8" s="1">
-        <v>81000</v>
-      </c>
-      <c r="M8" s="1">
-        <v>110000</v>
-      </c>
-      <c r="N8" s="1">
-        <v>1000000000</v>
-      </c>
-      <c r="O8" s="1">
-        <v>1000000000</v>
-      </c>
-      <c r="P8" s="1">
-        <v>1000000000</v>
+      <c r="A8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8">
+        <v>10000000</v>
+      </c>
+      <c r="C8">
+        <v>10000000</v>
+      </c>
+      <c r="D8">
+        <v>10000000</v>
+      </c>
+      <c r="E8">
+        <v>67234</v>
+      </c>
+      <c r="F8">
+        <v>67234</v>
+      </c>
+      <c r="G8">
+        <v>67234</v>
+      </c>
+      <c r="H8">
+        <v>10000000</v>
+      </c>
+      <c r="I8">
+        <v>10000000</v>
+      </c>
+      <c r="J8">
+        <v>10000000</v>
+      </c>
+      <c r="K8">
+        <v>10000000</v>
+      </c>
+      <c r="L8">
+        <v>10000000</v>
+      </c>
+      <c r="M8">
+        <v>10000000</v>
+      </c>
+      <c r="N8">
+        <v>10000000</v>
+      </c>
+      <c r="O8">
+        <v>10000000</v>
+      </c>
+      <c r="P8">
+        <v>10000000</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A9" s="1" t="s">
+      <c r="A9" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="1">
-        <v>159000</v>
-      </c>
-      <c r="C9" s="1">
-        <v>145000</v>
-      </c>
-      <c r="D9" s="1">
-        <v>140000</v>
-      </c>
-      <c r="E9" s="1">
-        <v>140000</v>
-      </c>
-      <c r="F9" s="1">
-        <v>125000</v>
-      </c>
-      <c r="G9" s="1">
-        <v>115000</v>
-      </c>
-      <c r="H9" s="1">
-        <v>55000</v>
-      </c>
-      <c r="I9" s="1">
-        <v>0</v>
-      </c>
-      <c r="J9" s="1">
-        <v>115000</v>
-      </c>
-      <c r="K9" s="1">
-        <v>120000</v>
-      </c>
-      <c r="L9" s="1">
-        <v>136000</v>
-      </c>
-      <c r="M9" s="1">
-        <v>165000</v>
-      </c>
-      <c r="N9" s="1">
-        <v>1000000000</v>
-      </c>
-      <c r="O9" s="1">
-        <v>1000000000</v>
-      </c>
-      <c r="P9" s="1">
-        <v>1000000000</v>
+      <c r="B9">
+        <v>10000000</v>
+      </c>
+      <c r="C9">
+        <v>10000000</v>
+      </c>
+      <c r="D9">
+        <v>10000000</v>
+      </c>
+      <c r="E9">
+        <v>67234</v>
+      </c>
+      <c r="F9">
+        <v>67234</v>
+      </c>
+      <c r="G9">
+        <v>67234</v>
+      </c>
+      <c r="H9">
+        <v>10000000</v>
+      </c>
+      <c r="I9">
+        <v>10000000</v>
+      </c>
+      <c r="J9">
+        <v>10000000</v>
+      </c>
+      <c r="K9">
+        <v>10000000</v>
+      </c>
+      <c r="L9">
+        <v>10000000</v>
+      </c>
+      <c r="M9">
+        <v>10000000</v>
+      </c>
+      <c r="N9">
+        <v>10000000</v>
+      </c>
+      <c r="O9">
+        <v>10000000</v>
+      </c>
+      <c r="P9">
+        <v>10000000</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A10" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="1">
-        <v>164000</v>
-      </c>
-      <c r="C10" s="1">
-        <v>150000</v>
-      </c>
-      <c r="D10" s="1">
-        <v>145000</v>
-      </c>
-      <c r="E10" s="1">
-        <v>145000</v>
-      </c>
-      <c r="F10" s="1">
-        <v>130000</v>
-      </c>
-      <c r="G10" s="1">
-        <v>120000</v>
-      </c>
-      <c r="H10" s="1">
-        <v>60000</v>
-      </c>
-      <c r="I10" s="1">
-        <v>115000</v>
-      </c>
-      <c r="J10" s="1">
-        <v>0</v>
-      </c>
-      <c r="K10" s="1">
-        <v>125000</v>
-      </c>
-      <c r="L10" s="1">
-        <v>141000</v>
-      </c>
-      <c r="M10" s="1">
-        <v>170000</v>
-      </c>
-      <c r="N10" s="1">
-        <v>1000000000</v>
-      </c>
-      <c r="O10" s="1">
-        <v>1000000000</v>
-      </c>
-      <c r="P10" s="1">
-        <v>1000000000</v>
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10">
+        <v>10000000</v>
+      </c>
+      <c r="C10">
+        <v>10000000</v>
+      </c>
+      <c r="D10">
+        <v>10000000</v>
+      </c>
+      <c r="E10">
+        <v>67234</v>
+      </c>
+      <c r="F10">
+        <v>67234</v>
+      </c>
+      <c r="G10">
+        <v>67234</v>
+      </c>
+      <c r="H10">
+        <v>10000000</v>
+      </c>
+      <c r="I10">
+        <v>10000000</v>
+      </c>
+      <c r="J10">
+        <v>10000000</v>
+      </c>
+      <c r="K10">
+        <v>10000000</v>
+      </c>
+      <c r="L10">
+        <v>10000000</v>
+      </c>
+      <c r="M10">
+        <v>10000000</v>
+      </c>
+      <c r="N10">
+        <v>10000000</v>
+      </c>
+      <c r="O10">
+        <v>10000000</v>
+      </c>
+      <c r="P10">
+        <v>10000000</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A11" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="1">
-        <v>169000</v>
-      </c>
-      <c r="C11" s="1">
-        <v>155000</v>
-      </c>
-      <c r="D11" s="1">
-        <v>150000</v>
-      </c>
-      <c r="E11" s="1">
-        <v>150000</v>
-      </c>
-      <c r="F11" s="1">
-        <v>135000</v>
-      </c>
-      <c r="G11" s="1">
-        <v>125000</v>
-      </c>
-      <c r="H11" s="1">
-        <v>65000</v>
-      </c>
-      <c r="I11" s="1">
-        <v>120000</v>
-      </c>
-      <c r="J11" s="1">
-        <v>125000</v>
-      </c>
-      <c r="K11" s="1">
-        <v>0</v>
-      </c>
-      <c r="L11" s="1">
-        <v>146000</v>
-      </c>
-      <c r="M11" s="1">
-        <v>175000</v>
-      </c>
-      <c r="N11" s="1">
-        <v>1000000000</v>
-      </c>
-      <c r="O11" s="1">
-        <v>1000000000</v>
-      </c>
-      <c r="P11" s="1">
-        <v>1000000000</v>
+      <c r="A11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11">
+        <v>10000000</v>
+      </c>
+      <c r="C11">
+        <v>10000000</v>
+      </c>
+      <c r="D11">
+        <v>10000000</v>
+      </c>
+      <c r="E11">
+        <v>910000000184</v>
+      </c>
+      <c r="F11">
+        <v>910000000184</v>
+      </c>
+      <c r="G11">
+        <v>910000000184</v>
+      </c>
+      <c r="H11">
+        <v>10000000</v>
+      </c>
+      <c r="I11">
+        <v>10000000</v>
+      </c>
+      <c r="J11">
+        <v>10000000</v>
+      </c>
+      <c r="K11">
+        <v>10000000</v>
+      </c>
+      <c r="L11">
+        <v>10000000</v>
+      </c>
+      <c r="M11">
+        <v>10000000</v>
+      </c>
+      <c r="N11">
+        <v>10000000</v>
+      </c>
+      <c r="O11">
+        <v>10000000</v>
+      </c>
+      <c r="P11">
+        <v>10000000</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A12" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" s="1">
-        <v>185000</v>
-      </c>
-      <c r="C12" s="1">
-        <v>171000</v>
-      </c>
-      <c r="D12" s="1">
-        <v>166000</v>
-      </c>
-      <c r="E12" s="1">
-        <v>166000</v>
-      </c>
-      <c r="F12" s="1">
-        <v>151000</v>
-      </c>
-      <c r="G12" s="1">
-        <v>141000</v>
-      </c>
-      <c r="H12" s="1">
-        <v>81000</v>
-      </c>
-      <c r="I12" s="1">
-        <v>136000</v>
-      </c>
-      <c r="J12" s="1">
-        <v>141000</v>
-      </c>
-      <c r="K12" s="1">
-        <v>146000</v>
-      </c>
-      <c r="L12" s="1">
-        <v>0</v>
-      </c>
-      <c r="M12" s="1">
-        <v>191000</v>
-      </c>
-      <c r="N12" s="1">
-        <v>1000000000</v>
-      </c>
-      <c r="O12" s="1">
-        <v>1000000000</v>
-      </c>
-      <c r="P12" s="1">
-        <v>1000000000</v>
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12">
+        <v>10000000</v>
+      </c>
+      <c r="C12">
+        <v>10000000</v>
+      </c>
+      <c r="D12">
+        <v>10000000</v>
+      </c>
+      <c r="E12">
+        <v>71733</v>
+      </c>
+      <c r="F12">
+        <v>71733</v>
+      </c>
+      <c r="G12">
+        <v>71733</v>
+      </c>
+      <c r="H12">
+        <v>10000000</v>
+      </c>
+      <c r="I12">
+        <v>10000000</v>
+      </c>
+      <c r="J12">
+        <v>10000000</v>
+      </c>
+      <c r="K12">
+        <v>10000000</v>
+      </c>
+      <c r="L12">
+        <v>10000000</v>
+      </c>
+      <c r="M12">
+        <v>10000000</v>
+      </c>
+      <c r="N12">
+        <v>10000000</v>
+      </c>
+      <c r="O12">
+        <v>10000000</v>
+      </c>
+      <c r="P12">
+        <v>10000000</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A13" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" s="1">
-        <v>214000</v>
-      </c>
-      <c r="C13" s="1">
-        <v>200000</v>
-      </c>
-      <c r="D13" s="1">
-        <v>195000</v>
-      </c>
-      <c r="E13" s="1">
-        <v>195000</v>
-      </c>
-      <c r="F13" s="1">
-        <v>180000</v>
-      </c>
-      <c r="G13" s="1">
-        <v>170000</v>
-      </c>
-      <c r="H13" s="1">
-        <v>110000</v>
-      </c>
-      <c r="I13" s="1">
-        <v>165000</v>
-      </c>
-      <c r="J13" s="1">
-        <v>170000</v>
-      </c>
-      <c r="K13" s="1">
-        <v>175000</v>
-      </c>
-      <c r="L13" s="1">
-        <v>191000</v>
-      </c>
-      <c r="M13" s="1">
-        <v>0</v>
-      </c>
-      <c r="N13" s="1">
-        <v>1000000000</v>
-      </c>
-      <c r="O13" s="1">
-        <v>1000000000</v>
-      </c>
-      <c r="P13" s="1">
-        <v>1000000000</v>
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13">
+        <v>10000000</v>
+      </c>
+      <c r="C13">
+        <v>10000000</v>
+      </c>
+      <c r="D13">
+        <v>10000000</v>
+      </c>
+      <c r="E13">
+        <v>45686</v>
+      </c>
+      <c r="F13">
+        <v>45686</v>
+      </c>
+      <c r="G13">
+        <v>45686</v>
+      </c>
+      <c r="H13">
+        <v>10000000</v>
+      </c>
+      <c r="I13">
+        <v>10000000</v>
+      </c>
+      <c r="J13">
+        <v>10000000</v>
+      </c>
+      <c r="K13">
+        <v>10000000</v>
+      </c>
+      <c r="L13">
+        <v>10000000</v>
+      </c>
+      <c r="M13">
+        <v>10000000</v>
+      </c>
+      <c r="N13">
+        <v>10000000</v>
+      </c>
+      <c r="O13">
+        <v>10000000</v>
+      </c>
+      <c r="P13">
+        <v>10000000</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A14" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="1">
-        <v>1000000000</v>
-      </c>
-      <c r="C14" s="1">
-        <v>1000000000</v>
-      </c>
-      <c r="D14" s="1">
-        <v>1000000000</v>
-      </c>
-      <c r="E14" s="1">
-        <v>1000000000</v>
-      </c>
-      <c r="F14" s="1">
-        <v>1000000000</v>
-      </c>
-      <c r="G14" s="1">
-        <v>1000000000</v>
-      </c>
-      <c r="H14" s="1">
-        <v>1000000000</v>
-      </c>
-      <c r="I14" s="1">
-        <v>1000000000</v>
-      </c>
-      <c r="J14" s="1">
-        <v>1000000000</v>
-      </c>
-      <c r="K14" s="1">
-        <v>1000000000</v>
-      </c>
-      <c r="L14" s="1">
-        <v>1000000000</v>
-      </c>
-      <c r="M14" s="1">
-        <v>1000000000</v>
-      </c>
-      <c r="N14" s="1">
-        <v>1000000000</v>
-      </c>
-      <c r="O14" s="1">
-        <v>1000000000</v>
-      </c>
-      <c r="P14" s="1">
-        <v>1000000000</v>
+      <c r="A14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14">
+        <v>10000000</v>
+      </c>
+      <c r="C14">
+        <v>10000000</v>
+      </c>
+      <c r="D14">
+        <v>10000000</v>
+      </c>
+      <c r="E14">
+        <v>45686</v>
+      </c>
+      <c r="F14">
+        <v>45686</v>
+      </c>
+      <c r="G14">
+        <v>45686</v>
+      </c>
+      <c r="H14">
+        <v>10000000</v>
+      </c>
+      <c r="I14">
+        <v>10000000</v>
+      </c>
+      <c r="J14">
+        <v>10000000</v>
+      </c>
+      <c r="K14">
+        <v>10000000</v>
+      </c>
+      <c r="L14">
+        <v>10000000</v>
+      </c>
+      <c r="M14">
+        <v>10000000</v>
+      </c>
+      <c r="N14">
+        <v>10000000</v>
+      </c>
+      <c r="O14">
+        <v>10000000</v>
+      </c>
+      <c r="P14">
+        <v>10000000</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A15" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" s="1">
-        <v>1000000000</v>
-      </c>
-      <c r="C15" s="1">
-        <v>1000000000</v>
-      </c>
-      <c r="D15" s="1">
-        <v>1000000000</v>
-      </c>
-      <c r="E15" s="1">
-        <v>1000000000</v>
-      </c>
-      <c r="F15" s="1">
-        <v>1000000000</v>
-      </c>
-      <c r="G15" s="1">
-        <v>1000000000</v>
-      </c>
-      <c r="H15" s="1">
-        <v>1000000000</v>
-      </c>
-      <c r="I15" s="1">
-        <v>1000000000</v>
-      </c>
-      <c r="J15" s="1">
-        <v>1000000000</v>
-      </c>
-      <c r="K15" s="1">
-        <v>1000000000</v>
-      </c>
-      <c r="L15" s="1">
-        <v>1000000000</v>
-      </c>
-      <c r="M15" s="1">
-        <v>1000000000</v>
-      </c>
-      <c r="N15" s="1">
-        <v>1000000000</v>
-      </c>
-      <c r="O15" s="1">
-        <v>1000000000</v>
-      </c>
-      <c r="P15" s="1">
-        <v>1000000000</v>
+      <c r="A15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15">
+        <v>10000000</v>
+      </c>
+      <c r="C15">
+        <v>10000000</v>
+      </c>
+      <c r="D15">
+        <v>10000000</v>
+      </c>
+      <c r="E15">
+        <v>1210000000977</v>
+      </c>
+      <c r="F15">
+        <v>1210000000977</v>
+      </c>
+      <c r="G15">
+        <v>1210000000977</v>
+      </c>
+      <c r="H15">
+        <v>10000000</v>
+      </c>
+      <c r="I15">
+        <v>10000000</v>
+      </c>
+      <c r="J15">
+        <v>10000000</v>
+      </c>
+      <c r="K15">
+        <v>10000000</v>
+      </c>
+      <c r="L15">
+        <v>10000000</v>
+      </c>
+      <c r="M15">
+        <v>10000000</v>
+      </c>
+      <c r="N15">
+        <v>10000000</v>
+      </c>
+      <c r="O15">
+        <v>10000000</v>
+      </c>
+      <c r="P15">
+        <v>10000000</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A16" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16" s="1">
-        <v>1000000000</v>
-      </c>
-      <c r="C16" s="1">
-        <v>1000000000</v>
-      </c>
-      <c r="D16" s="1">
-        <v>1000000000</v>
-      </c>
-      <c r="E16" s="1">
-        <v>1000000000</v>
-      </c>
-      <c r="F16" s="1">
-        <v>1000000000</v>
-      </c>
-      <c r="G16" s="1">
-        <v>1000000000</v>
-      </c>
-      <c r="H16" s="1">
-        <v>1000000000</v>
-      </c>
-      <c r="I16" s="1">
-        <v>1000000000</v>
-      </c>
-      <c r="J16" s="1">
-        <v>1000000000</v>
-      </c>
-      <c r="K16" s="1">
-        <v>1000000000</v>
-      </c>
-      <c r="L16" s="1">
-        <v>1000000000</v>
-      </c>
-      <c r="M16" s="1">
-        <v>1000000000</v>
-      </c>
-      <c r="N16" s="1">
-        <v>1000000000</v>
-      </c>
-      <c r="O16" s="1">
-        <v>1000000000</v>
-      </c>
-      <c r="P16" s="1">
-        <v>1000000000</v>
-      </c>
-    </row>
-    <row r="17" spans="14:16" x14ac:dyDescent="0.45">
-      <c r="N17" s="1"/>
-      <c r="O17" s="1"/>
-      <c r="P17" s="1"/>
+      <c r="A16" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16">
+        <v>10000000</v>
+      </c>
+      <c r="C16">
+        <v>10000000</v>
+      </c>
+      <c r="D16">
+        <v>10000000</v>
+      </c>
+      <c r="E16">
+        <v>1331310000000</v>
+      </c>
+      <c r="F16">
+        <v>1331310000000</v>
+      </c>
+      <c r="G16">
+        <v>1331310000000</v>
+      </c>
+      <c r="H16">
+        <v>10000000</v>
+      </c>
+      <c r="I16">
+        <v>10000000</v>
+      </c>
+      <c r="J16">
+        <v>10000000</v>
+      </c>
+      <c r="K16">
+        <v>10000000</v>
+      </c>
+      <c r="L16">
+        <v>10000000</v>
+      </c>
+      <c r="M16">
+        <v>10000000</v>
+      </c>
+      <c r="N16">
+        <v>10000000</v>
+      </c>
+      <c r="O16">
+        <v>10000000</v>
+      </c>
+      <c r="P16">
+        <v>10000000</v>
+      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="duplicateValues" dxfId="1" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N1:P1">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
